--- a/outputs-r202/g__Methanobrevibacter_A.xlsx
+++ b/outputs-r202/g__Methanobrevibacter_A.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:AQ15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -791,548 +791,1781 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RUG344.fasta</t>
+          <t>RUG031.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.600772902216883e-14</v>
+        <v>2.220366642605638e-14</v>
       </c>
       <c r="C3" t="n">
-        <v>4.600772902216883e-14</v>
+        <v>2.220366642605638e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>9.993959101364348e-10</v>
+        <v>0.0002803535242184747</v>
       </c>
       <c r="E3" t="n">
-        <v>6.551249189844464e-07</v>
+        <v>8.921595045609725e-09</v>
       </c>
       <c r="F3" t="n">
-        <v>4.600772902216875e-14</v>
+        <v>2.220366642605638e-14</v>
       </c>
       <c r="G3" t="n">
-        <v>4.60077290221689e-14</v>
+        <v>2.220366642605638e-14</v>
       </c>
       <c r="H3" t="n">
-        <v>4.600772902216866e-14</v>
+        <v>2.220366642605638e-14</v>
       </c>
       <c r="I3" t="n">
-        <v>4.600772902216866e-14</v>
+        <v>2.220366642605638e-14</v>
       </c>
       <c r="J3" t="n">
-        <v>4.600772902216866e-14</v>
+        <v>2.220366642605638e-14</v>
       </c>
       <c r="K3" t="n">
-        <v>4.600772902216881e-14</v>
+        <v>2.220366642605638e-14</v>
       </c>
       <c r="L3" t="n">
-        <v>1.326117061148636e-06</v>
+        <v>0.981706722705336</v>
       </c>
       <c r="M3" t="n">
-        <v>4.600772902216881e-14</v>
+        <v>2.220366642605638e-14</v>
       </c>
       <c r="N3" t="n">
-        <v>4.600772902216881e-14</v>
+        <v>2.220366642605638e-14</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9991896704943622</v>
+        <v>1.572428134126004e-05</v>
       </c>
       <c r="P3" t="n">
-        <v>1.706844044401681e-06</v>
+        <v>0.0005369182346946074</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.642881073739898e-05</v>
+        <v>1.391555823828353e-06</v>
       </c>
       <c r="R3" t="n">
-        <v>4.600772902216895e-14</v>
+        <v>2.220366642605638e-14</v>
       </c>
       <c r="S3" t="n">
-        <v>4.600772902216887e-14</v>
+        <v>0.0001252101586647379</v>
       </c>
       <c r="T3" t="n">
-        <v>4.600772902216898e-14</v>
+        <v>2.220366642605638e-14</v>
       </c>
       <c r="U3" t="n">
-        <v>4.600772902216875e-14</v>
+        <v>2.220366642605638e-14</v>
       </c>
       <c r="V3" t="n">
-        <v>8.800555654875533e-05</v>
+        <v>0.003585201991546413</v>
       </c>
       <c r="W3" t="n">
-        <v>4.600772902216892e-14</v>
+        <v>2.220366642605638e-14</v>
       </c>
       <c r="X3" t="n">
-        <v>7.150241876143911e-11</v>
+        <v>0.0003978242929250595</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0006366238877004206</v>
+        <v>0.006291170528398204</v>
       </c>
       <c r="Z3" t="n">
-        <v>4.600772902216895e-14</v>
+        <v>2.220366642605638e-14</v>
       </c>
       <c r="AA3" t="n">
-        <v>5.527461431330235e-05</v>
+        <v>2.220366642605638e-14</v>
       </c>
       <c r="AB3" t="n">
-        <v>4.600772902216895e-14</v>
+        <v>2.220366642605638e-14</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.600772902216895e-14</v>
+        <v>2.220366642605638e-14</v>
       </c>
       <c r="AD3" t="n">
-        <v>3.074781273462354e-07</v>
+        <v>0.007059473804834618</v>
       </c>
       <c r="AE3" t="n">
-        <v>4.600772902216875e-14</v>
+        <v>2.220366642605638e-14</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.600772902216898e-14</v>
+        <v>2.220366642605638e-14</v>
       </c>
       <c r="AG3" t="n">
-        <v>4.600772902216898e-14</v>
+        <v>2.220366642605638e-14</v>
       </c>
       <c r="AH3" t="n">
-        <v>4.600772902216898e-14</v>
+        <v>2.220366642605638e-14</v>
       </c>
       <c r="AI3" t="n">
-        <v>4.600772902216894e-14</v>
+        <v>2.220366642605638e-14</v>
       </c>
       <c r="AJ3" t="n">
-        <v>4.600772902216891e-14</v>
+        <v>2.220366642605638e-14</v>
       </c>
       <c r="AK3" t="n">
-        <v>4.600772902216891e-14</v>
+        <v>2.220366642605638e-14</v>
       </c>
       <c r="AL3" t="n">
-        <v>4.600772902216891e-14</v>
+        <v>2.220366642605638e-14</v>
       </c>
       <c r="AM3" t="n">
-        <v>4.600772902216891e-14</v>
+        <v>2.220366642605638e-14</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.600772902216894e-14</v>
+        <v>2.220366642605638e-14</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.9991896704943622</v>
+        <v>0.981706722705336</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>s__Methanobrevibacter_A sp900318035</t>
+          <t>s__Methanobrevibacter_A sp900314695</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>s__Methanobrevibacter_A sp900318035</t>
+          <t>s__Methanobrevibacter_A sp900314695</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>RUG545.fasta</t>
+          <t>RUG092.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220311864688814e-14</v>
       </c>
       <c r="C4" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220311864688814e-14</v>
       </c>
       <c r="D4" t="n">
-        <v>5.827506274026063e-13</v>
+        <v>2.241110693476259e-06</v>
       </c>
       <c r="E4" t="n">
-        <v>1.619061280155109e-07</v>
+        <v>8.259487140441151e-09</v>
       </c>
       <c r="F4" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220311864688814e-14</v>
       </c>
       <c r="G4" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220311864688814e-14</v>
       </c>
       <c r="H4" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220311864688814e-14</v>
       </c>
       <c r="I4" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220311864688814e-14</v>
       </c>
       <c r="J4" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220311864688814e-14</v>
       </c>
       <c r="K4" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220311864688814e-14</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0007022784594307749</v>
+        <v>0.9850663375049202</v>
       </c>
       <c r="M4" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220311864688814e-14</v>
       </c>
       <c r="N4" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220311864688814e-14</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0002773756266986178</v>
+        <v>3.480530886317476e-05</v>
       </c>
       <c r="P4" t="n">
-        <v>2.147091482075017e-09</v>
+        <v>3.015637397195305e-07</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.9952152114278859</v>
+        <v>0.0006048340371870402</v>
       </c>
       <c r="R4" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220311864688814e-14</v>
       </c>
       <c r="S4" t="n">
-        <v>2.229569990403341e-14</v>
+        <v>1.586781080749732e-05</v>
       </c>
       <c r="T4" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220311864688814e-14</v>
       </c>
       <c r="U4" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220311864688814e-14</v>
       </c>
       <c r="V4" t="n">
-        <v>0.000133689109807733</v>
+        <v>0.0008472529218669541</v>
       </c>
       <c r="W4" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220311864688814e-14</v>
       </c>
       <c r="X4" t="n">
-        <v>1.816172019100051e-07</v>
+        <v>5.151681552448953e-05</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.003442861183309004</v>
+        <v>0.01057352759974267</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220311864688814e-14</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.0002262373260897053</v>
+        <v>2.220311864688814e-14</v>
       </c>
       <c r="AB4" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220311864688814e-14</v>
       </c>
       <c r="AC4" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220311864688814e-14</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.001195149448198e-06</v>
+        <v>0.00280330706654592</v>
       </c>
       <c r="AE4" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220311864688814e-14</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220311864688814e-14</v>
       </c>
       <c r="AG4" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220311864688814e-14</v>
       </c>
       <c r="AH4" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220311864688814e-14</v>
       </c>
       <c r="AI4" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220311864688814e-14</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220311864688814e-14</v>
       </c>
       <c r="AK4" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220311864688814e-14</v>
       </c>
       <c r="AL4" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220311864688814e-14</v>
       </c>
       <c r="AM4" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220311864688814e-14</v>
       </c>
       <c r="AN4" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220311864688814e-14</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.9952152114278859</v>
+        <v>0.9850663375049202</v>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>s__Methanobrevibacter_A sp900319985</t>
+          <t>s__Methanobrevibacter_A sp900314695</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>s__Methanobrevibacter_A sp900319985</t>
+          <t>s__Methanobrevibacter_A sp900314695</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>RUG593.fasta</t>
+          <t>RUG186.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>2.220506816973255e-14</v>
       </c>
       <c r="C5" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>2.220506816973255e-14</v>
       </c>
       <c r="D5" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>5.343810166905586e-05</v>
       </c>
       <c r="E5" t="n">
-        <v>4.227304523162597e-07</v>
+        <v>1.2115088225698e-08</v>
       </c>
       <c r="F5" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>2.220506816973255e-14</v>
       </c>
       <c r="G5" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>2.220506816973255e-14</v>
       </c>
       <c r="H5" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>2.220506816973255e-14</v>
       </c>
       <c r="I5" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>2.220506816973255e-14</v>
       </c>
       <c r="J5" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>2.220506816973255e-14</v>
       </c>
       <c r="K5" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>2.220506816973255e-14</v>
       </c>
       <c r="L5" t="n">
-        <v>1.216220683844335e-08</v>
+        <v>1.415993552818756e-09</v>
       </c>
       <c r="M5" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>2.220506816973255e-14</v>
       </c>
       <c r="N5" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>0.9578367112033277</v>
       </c>
       <c r="O5" t="n">
-        <v>4.994198233872785e-06</v>
+        <v>2.459306870298663e-09</v>
       </c>
       <c r="P5" t="n">
-        <v>3.822361802954221e-09</v>
+        <v>0.0002179137491401046</v>
       </c>
       <c r="Q5" t="n">
-        <v>7.118845464234278e-06</v>
+        <v>6.707448474298139e-05</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9946002210382925</v>
+        <v>2.220506816973255e-14</v>
       </c>
       <c r="S5" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>3.118161172937929e-09</v>
       </c>
       <c r="T5" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>2.220506816973255e-14</v>
       </c>
       <c r="U5" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>2.220506816973255e-14</v>
       </c>
       <c r="V5" t="n">
-        <v>4.80406077844884e-08</v>
+        <v>0.02546830268389401</v>
       </c>
       <c r="W5" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>2.220506816973255e-14</v>
       </c>
       <c r="X5" t="n">
-        <v>9.352105088640989e-11</v>
+        <v>0.0001504440396639436</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.005386946420420684</v>
+        <v>0.01530753488711614</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>2.220506816973255e-14</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.326033513200056e-07</v>
+        <v>2.220506816973255e-14</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>2.220506816973255e-14</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>2.220506816973255e-14</v>
       </c>
       <c r="AD5" t="n">
-        <v>4.446609567604508e-11</v>
+        <v>0.0008985617412966429</v>
       </c>
       <c r="AE5" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>2.220506816973255e-14</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>2.220506816973255e-14</v>
       </c>
       <c r="AG5" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>2.220506816973255e-14</v>
       </c>
       <c r="AH5" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>2.220506816973255e-14</v>
       </c>
       <c r="AI5" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>2.220506816973255e-14</v>
       </c>
       <c r="AJ5" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>2.220506816973255e-14</v>
       </c>
       <c r="AK5" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>2.220506816973255e-14</v>
       </c>
       <c r="AL5" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>2.220506816973255e-14</v>
       </c>
       <c r="AM5" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>2.220506816973255e-14</v>
       </c>
       <c r="AN5" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>2.220506816973255e-14</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.9946002210382925</v>
+        <v>0.9578367112033277</v>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>s__Methanobrevibacter_A sp900320515</t>
+          <t>s__Methanobrevibacter_A sp900317865</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>s__Methanobrevibacter_A sp900320515</t>
+          <t>s__Methanobrevibacter_A sp900317865</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
+          <t>RUG236.fasta</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2.220201272818566e-14</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.220201272818566e-14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.220201272818566e-14</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4.973150861142408e-07</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.220201272818566e-14</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.220201272818566e-14</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.220201272818566e-14</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.220201272818566e-14</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.220201272818566e-14</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.220201272818566e-14</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5.438007219703086e-07</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.9952609110562236</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.220201272818566e-14</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2.205994011985298e-07</v>
+      </c>
+      <c r="P6" t="n">
+        <v>7.356950178610339e-09</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3.97566771612898e-07</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.220201272818566e-14</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.220201272818566e-14</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.220201272818566e-14</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.220201272818566e-14</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.885059427748794e-05</v>
+      </c>
+      <c r="W6" t="n">
+        <v>2.220201272818566e-14</v>
+      </c>
+      <c r="X6" t="n">
+        <v>4.463116671082475e-09</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.004548462172385429</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>2.220201272818566e-14</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.0001601019220373863</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>2.220201272818566e-14</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>2.220201272818566e-14</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>3.152406662916603e-09</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>2.220201272818566e-14</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>2.220201272818566e-14</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>2.220201272818566e-14</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2.220201272818566e-14</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>2.220201272818566e-14</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>2.220201272818566e-14</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>2.220201272818566e-14</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>2.220201272818566e-14</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>2.220201272818566e-14</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>2.220201272818566e-14</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.9952609110562236</v>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900316895</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900316895</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RUG256.fasta</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.220118437517454e-14</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.220118437517454e-14</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.853608373941976e-05</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5.234575579027125e-09</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.220118437517454e-14</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.220118437517454e-14</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.220118437517454e-14</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.220118437517454e-14</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.220118437517454e-14</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.220118437517454e-14</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.9509143146539784</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.220118437517454e-14</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.220118437517454e-14</v>
+      </c>
+      <c r="O7" t="n">
+        <v>5.487915354193794e-06</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.500273706203823e-06</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.0001348565096316927</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.220118437517454e-14</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.811202436829606e-05</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.220118437517454e-14</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.220118437517454e-14</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.0001955340400753692</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2.220118437517454e-14</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.001001726510194108</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.04623878081161819</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>2.220118437517454e-14</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>2.220118437517454e-14</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>2.220118437517454e-14</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>2.220118437517454e-14</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.001430145942136918</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>2.220118437517454e-14</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>2.220118437517454e-14</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>2.220118437517454e-14</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>2.220118437517454e-14</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>2.220118437517454e-14</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>2.220118437517454e-14</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>2.220118437517454e-14</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>2.220118437517454e-14</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>2.220118437517454e-14</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>2.220118437517454e-14</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.9509143146539784</v>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900314695</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900314695</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>RUG338.fasta</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2.220358016971058e-14</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.220358016971058e-14</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.614466327625726e-06</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.861259323662397e-08</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.220358016971058e-14</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.220358016971058e-14</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.220358016971058e-14</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.220358016971058e-14</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.220358016971058e-14</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.220358016971058e-14</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.056266722323811e-09</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.220358016971058e-14</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.9556601340111505</v>
+      </c>
+      <c r="O8" t="n">
+        <v>4.120194241349922e-09</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.002246124801280825</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.607046366018927e-07</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.220358016971058e-14</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.220358016971058e-14</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.220358016971058e-14</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.220358016971058e-14</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.007475110936974812</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2.220358016971058e-14</v>
+      </c>
+      <c r="X8" t="n">
+        <v>2.226492406638563e-05</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.03419814986839374</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>2.220358016971058e-14</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>2.220358016971058e-14</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>2.220358016971058e-14</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>2.220358016971058e-14</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.0003954134974937694</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>2.220358016971058e-14</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>2.220358016971058e-14</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>2.220358016971058e-14</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>2.220358016971058e-14</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>2.220358016971058e-14</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>2.220358016971058e-14</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>2.220358016971058e-14</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>2.220358016971058e-14</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>2.220358016971058e-14</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>2.220358016971058e-14</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.9556601340111505</v>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900317865</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900317865</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RUG344.fasta</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4.600772902216883e-14</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.600772902216883e-14</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9.993959101364348e-10</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6.551249189844464e-07</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4.600772902216875e-14</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4.60077290221689e-14</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4.600772902216866e-14</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.600772902216866e-14</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.600772902216866e-14</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.600772902216881e-14</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.326117061148636e-06</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4.600772902216881e-14</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4.600772902216881e-14</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.9991896704943622</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.706844044401681e-06</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.642881073739898e-05</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4.600772902216895e-14</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4.600772902216887e-14</v>
+      </c>
+      <c r="T9" t="n">
+        <v>4.600772902216898e-14</v>
+      </c>
+      <c r="U9" t="n">
+        <v>4.600772902216875e-14</v>
+      </c>
+      <c r="V9" t="n">
+        <v>8.800555654875533e-05</v>
+      </c>
+      <c r="W9" t="n">
+        <v>4.600772902216892e-14</v>
+      </c>
+      <c r="X9" t="n">
+        <v>7.150241876143911e-11</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.0006366238877004206</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>4.600772902216895e-14</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>5.527461431330235e-05</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>4.600772902216895e-14</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>4.600772902216895e-14</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>3.074781273462354e-07</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>4.600772902216875e-14</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>4.600772902216898e-14</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>4.600772902216898e-14</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>4.600772902216898e-14</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>4.600772902216894e-14</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>4.600772902216891e-14</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>4.600772902216891e-14</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>4.600772902216891e-14</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>4.600772902216891e-14</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.600772902216894e-14</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.9991896704943622</v>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900318035</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900318035</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RUG526.fasta</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2.220465452929254e-14</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.220465452929254e-14</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.002825359044669716</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7.17634823324816e-09</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.220465452929254e-14</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.220465452929254e-14</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.220465452929254e-14</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.220465452929254e-14</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.220465452929254e-14</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.220465452929254e-14</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.9644428160577044</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2.220465452929254e-14</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.220465452929254e-14</v>
+      </c>
+      <c r="O10" t="n">
+        <v>4.946071153210093e-05</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5.448019815990386e-05</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>9.019597828830019e-05</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.220465452929254e-14</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.02044319088376963</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.220465452929254e-14</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.220465452929254e-14</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.0004729123620889241</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2.220465452929254e-14</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.0001268660843398137</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.008419542221742585</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>2.220465452929254e-14</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>2.220465452929254e-14</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>2.220465452929254e-14</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>2.220465452929254e-14</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.003075169280734707</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>2.220465452929254e-14</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>2.220465452929254e-14</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>2.220465452929254e-14</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>2.220465452929254e-14</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>2.220465452929254e-14</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>2.220465452929254e-14</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>2.220465452929254e-14</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>2.220465452929254e-14</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>2.220465452929254e-14</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>2.220465452929254e-14</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.9644428160577044</v>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900314695</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900314695</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG545.fasta</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.22956999040334e-14</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.22956999040334e-14</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5.827506274026063e-13</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.619061280155109e-07</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2.22956999040334e-14</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.22956999040334e-14</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.22956999040334e-14</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.22956999040334e-14</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.22956999040334e-14</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.22956999040334e-14</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.0007022784594307749</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2.22956999040334e-14</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.22956999040334e-14</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.0002773756266986178</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.147091482075017e-09</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.9952152114278859</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.22956999040334e-14</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.229569990403341e-14</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.22956999040334e-14</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.22956999040334e-14</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.000133689109807733</v>
+      </c>
+      <c r="W11" t="n">
+        <v>2.22956999040334e-14</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1.816172019100051e-07</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.003442861183309004</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>2.22956999040334e-14</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.0002262373260897053</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>2.22956999040334e-14</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>2.22956999040334e-14</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>2.001195149448198e-06</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>2.22956999040334e-14</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>2.22956999040334e-14</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>2.22956999040334e-14</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>2.22956999040334e-14</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>2.22956999040334e-14</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>2.22956999040334e-14</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>2.22956999040334e-14</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>2.22956999040334e-14</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>2.22956999040334e-14</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>2.22956999040334e-14</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.9952152114278859</v>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900319985</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900319985</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG593.fasta</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.220200911480724e-14</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.220200911480724e-14</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.220200911480724e-14</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4.227304523162597e-07</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2.220200911480724e-14</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.220200911480724e-14</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.220200911480724e-14</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.220200911480724e-14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.220200911480724e-14</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.220200911480724e-14</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.216220683844335e-08</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2.220200911480724e-14</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.220200911480724e-14</v>
+      </c>
+      <c r="O12" t="n">
+        <v>4.994198233872785e-06</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.822361802954221e-09</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>7.118845464234278e-06</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.9946002210382925</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.220200911480724e-14</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.220200911480724e-14</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.220200911480724e-14</v>
+      </c>
+      <c r="V12" t="n">
+        <v>4.80406077844884e-08</v>
+      </c>
+      <c r="W12" t="n">
+        <v>2.220200911480724e-14</v>
+      </c>
+      <c r="X12" t="n">
+        <v>9.352105088640989e-11</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.005386946420420684</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>2.220200911480724e-14</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>2.326033513200056e-07</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>2.220200911480724e-14</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>2.220200911480724e-14</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>4.446609567604508e-11</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>2.220200911480724e-14</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>2.220200911480724e-14</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>2.220200911480724e-14</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>2.220200911480724e-14</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>2.220200911480724e-14</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>2.220200911480724e-14</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>2.220200911480724e-14</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>2.220200911480724e-14</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>2.220200911480724e-14</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>2.220200911480724e-14</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.9946002210382925</v>
+      </c>
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900320515</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900320515</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
           <t>RUG648.fasta</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>2.220287653562837e-14</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2.220287653562837e-14</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="B13" t="n">
+        <v>2.220287653562837e-14</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.220287653562837e-14</v>
+      </c>
+      <c r="D13" t="n">
         <v>0.0007122428844148672</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E13" t="n">
         <v>1.435851443341324e-08</v>
       </c>
-      <c r="F6" t="n">
-        <v>2.220287653562837e-14</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2.220287653562837e-14</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.220287653562837e-14</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.220287653562837e-14</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.220287653562837e-14</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.220287653562837e-14</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="F13" t="n">
+        <v>2.220287653562837e-14</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2.220287653562837e-14</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.220287653562837e-14</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.220287653562837e-14</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.220287653562837e-14</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.220287653562837e-14</v>
+      </c>
+      <c r="L13" t="n">
         <v>0.0001132219105716086</v>
       </c>
-      <c r="M6" t="n">
-        <v>2.220287653562837e-14</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.220287653562837e-14</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="M13" t="n">
+        <v>2.220287653562837e-14</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.220287653562837e-14</v>
+      </c>
+      <c r="O13" t="n">
         <v>1.096598100987115e-05</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P13" t="n">
         <v>0.0001462943607082002</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q13" t="n">
         <v>0.00149426138569927</v>
       </c>
-      <c r="R6" t="n">
-        <v>2.220287653562837e-14</v>
-      </c>
-      <c r="S6" t="n">
+      <c r="R13" t="n">
+        <v>2.220287653562837e-14</v>
+      </c>
+      <c r="S13" t="n">
         <v>0.9885399163856663</v>
       </c>
-      <c r="T6" t="n">
-        <v>2.220287653562837e-14</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.220287653562837e-14</v>
-      </c>
-      <c r="V6" t="n">
+      <c r="T13" t="n">
+        <v>2.220287653562837e-14</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.220287653562837e-14</v>
+      </c>
+      <c r="V13" t="n">
         <v>0.005018147159941702</v>
       </c>
-      <c r="W6" t="n">
-        <v>2.220287653562837e-14</v>
-      </c>
-      <c r="X6" t="n">
+      <c r="W13" t="n">
+        <v>2.220287653562837e-14</v>
+      </c>
+      <c r="X13" t="n">
         <v>8.960174621558659e-05</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y13" t="n">
         <v>0.000345939617277129</v>
       </c>
-      <c r="Z6" t="n">
-        <v>2.220287653562837e-14</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>2.220287653562837e-14</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>2.220287653562837e-14</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>2.220287653562837e-14</v>
-      </c>
-      <c r="AD6" t="n">
+      <c r="Z13" t="n">
+        <v>2.220287653562837e-14</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>2.220287653562837e-14</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>2.220287653562837e-14</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>2.220287653562837e-14</v>
+      </c>
+      <c r="AD13" t="n">
         <v>0.003529394209359232</v>
       </c>
-      <c r="AE6" t="n">
-        <v>2.220287653562837e-14</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>2.220287653562837e-14</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>2.220287653562837e-14</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>2.220287653562837e-14</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>2.220287653562837e-14</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>2.220287653562837e-14</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>2.220287653562837e-14</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>2.220287653562837e-14</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>2.220287653562837e-14</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>2.220287653562837e-14</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AE13" t="n">
+        <v>2.220287653562837e-14</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>2.220287653562837e-14</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>2.220287653562837e-14</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>2.220287653562837e-14</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>2.220287653562837e-14</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>2.220287653562837e-14</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>2.220287653562837e-14</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>2.220287653562837e-14</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>2.220287653562837e-14</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>2.220287653562837e-14</v>
+      </c>
+      <c r="AO13" t="n">
         <v>0.9885399163856663</v>
       </c>
-      <c r="AP6" t="inlineStr">
+      <c r="AP13" t="inlineStr">
         <is>
           <t>s__Methanobrevibacter_A sp900320955</t>
         </is>
       </c>
-      <c r="AQ6" t="inlineStr">
+      <c r="AQ13" t="inlineStr">
         <is>
           <t>s__Methanobrevibacter_A sp900320955</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>RUG780.fasta</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7.247648080183055e-14</v>
+      </c>
+      <c r="C14" t="n">
+        <v>7.247648080183055e-14</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.003760548986056855</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.090732548728597e-06</v>
+      </c>
+      <c r="F14" t="n">
+        <v>7.247648080183055e-14</v>
+      </c>
+      <c r="G14" t="n">
+        <v>7.247648080183047e-14</v>
+      </c>
+      <c r="H14" t="n">
+        <v>7.247648080183047e-14</v>
+      </c>
+      <c r="I14" t="n">
+        <v>7.247648080183047e-14</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7.247648080183047e-14</v>
+      </c>
+      <c r="K14" t="n">
+        <v>7.247648080183047e-14</v>
+      </c>
+      <c r="L14" t="n">
+        <v>7.425131780479693e-08</v>
+      </c>
+      <c r="M14" t="n">
+        <v>7.247648080183049e-14</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.050940518342588e-10</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2.071291478629366e-08</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.600143564238902</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>7.247610324671002e-12</v>
+      </c>
+      <c r="R14" t="n">
+        <v>7.24764808018316e-14</v>
+      </c>
+      <c r="S14" t="n">
+        <v>7.247648080183168e-14</v>
+      </c>
+      <c r="T14" t="n">
+        <v>7.247648080183168e-14</v>
+      </c>
+      <c r="U14" t="n">
+        <v>7.247648080183168e-14</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.1414591567333815</v>
+      </c>
+      <c r="W14" t="n">
+        <v>7.247648080183055e-14</v>
+      </c>
+      <c r="X14" t="n">
+        <v>4.373100291282673e-06</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.254592306165177</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>7.247648080183166e-14</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>7.247648080183168e-14</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>7.247648080183168e-14</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>7.247648080183168e-14</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>3.886486503984207e-05</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>7.247648080183168e-14</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>7.247648080183168e-14</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>7.247648080183168e-14</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7.247648080183168e-14</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>7.247648080183171e-14</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>7.247648080183171e-14</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>7.247648080183171e-14</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>7.247648080183171e-14</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>7.247648080183171e-14</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>7.247648080183171e-14</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.600143564238902</v>
+      </c>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900319535</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900319535</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RUG787.fasta</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2.220203214330684e-14</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.220203214330684e-14</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2.220203214330684e-14</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3.371239243194066e-07</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2.220203214330684e-14</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.066794369540721e-13</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.220203214330684e-14</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.220203214330684e-14</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.220203214330684e-14</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.220203214330684e-14</v>
+      </c>
+      <c r="L15" t="n">
+        <v>8.350095699752995e-12</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2.220203214330684e-14</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2.220203214330684e-14</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.074052515403337e-08</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.852984650785802e-08</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.129218109698645e-12</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.9894150716342981</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.220203214330684e-14</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.220203214330684e-14</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.220203214330684e-14</v>
+      </c>
+      <c r="V15" t="n">
+        <v>7.02080630910011e-08</v>
+      </c>
+      <c r="W15" t="n">
+        <v>2.220203214330684e-14</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1.695094402377445e-10</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.0105844815818515</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>2.220203214330684e-14</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1.548829950697301e-13</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>2.220203214330684e-14</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>2.220203214330684e-14</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>1.641532468050527e-12</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>2.220203214330684e-14</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>2.220203214330684e-14</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>2.220203214330684e-14</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>2.220203214330684e-14</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>2.220203214330684e-14</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>2.220203214330684e-14</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>2.220203214330684e-14</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>2.220203214330684e-14</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>2.220203214330684e-14</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>2.220203214330684e-14</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0.9894150716342981</v>
+      </c>
+      <c r="AP15" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900320515</t>
+        </is>
+      </c>
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900320515</t>
         </is>
       </c>
     </row>

--- a/outputs-r202/g__Methanobrevibacter_A.xlsx
+++ b/outputs-r202/g__Methanobrevibacter_A.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP16"/>
+  <dimension ref="A1:AQ16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,6 +645,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -777,6 +782,11 @@
           <t>s__Methanobrevibacter_A sp900314615</t>
         </is>
       </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900314615</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -909,6 +919,11 @@
           <t>s__Methanobrevibacter_A sp900314695</t>
         </is>
       </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900314695</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1041,6 +1056,11 @@
           <t>s__Methanobrevibacter_A sp900314695</t>
         </is>
       </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900314695</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1173,6 +1193,11 @@
           <t>s__Methanobrevibacter_A sp900317865</t>
         </is>
       </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900317865</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1305,6 +1330,11 @@
           <t>s__Methanobrevibacter_A sp900316895</t>
         </is>
       </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900316895</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1437,6 +1467,11 @@
           <t>s__Methanobrevibacter_A sp900314695</t>
         </is>
       </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900314695</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1569,6 +1604,11 @@
           <t>s__Methanobrevibacter_A sp900317865</t>
         </is>
       </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900317865</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1701,6 +1741,11 @@
           <t>s__Methanobrevibacter_A sp900318035</t>
         </is>
       </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900318035</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1833,6 +1878,11 @@
           <t>s__Methanobrevibacter_A sp900314695</t>
         </is>
       </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900314695</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1965,6 +2015,11 @@
           <t>s__Methanobrevibacter_A sp900319985</t>
         </is>
       </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900319985</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -2097,6 +2152,11 @@
           <t>s__Methanobrevibacter_A sp900320515</t>
         </is>
       </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900320515</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -2229,6 +2289,11 @@
           <t>s__Methanobrevibacter_A sp900320955</t>
         </is>
       </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900320955</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2361,6 +2426,11 @@
           <t>s__Methanobrevibacter_A sp900319535</t>
         </is>
       </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900319535</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -2493,6 +2563,11 @@
           <t>s__Methanobrevibacter_A sp900320515</t>
         </is>
       </c>
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900320515</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -2621,6 +2696,11 @@
         <v>0.9972716076287266</v>
       </c>
       <c r="AP16" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900313645</t>
+        </is>
+      </c>
+      <c r="AQ16" t="inlineStr">
         <is>
           <t>s__Methanobrevibacter_A sp900313645</t>
         </is>

--- a/outputs-r202/g__Methanobrevibacter_A.xlsx
+++ b/outputs-r202/g__Methanobrevibacter_A.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ16"/>
+  <dimension ref="A1:AQ18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,124 +658,124 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.220287175525252e-14</v>
+        <v>2.220299567484411e-14</v>
       </c>
       <c r="C2" t="n">
-        <v>2.220287175525252e-14</v>
+        <v>2.220299567484411e-14</v>
       </c>
       <c r="D2" t="n">
-        <v>3.438599376174087e-10</v>
+        <v>2.220299567484411e-14</v>
       </c>
       <c r="E2" t="n">
-        <v>4.122585483084637e-08</v>
+        <v>4.948414240547265e-08</v>
       </c>
       <c r="F2" t="n">
-        <v>2.220287175525252e-14</v>
+        <v>2.220299567484411e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>2.220287175525252e-14</v>
+        <v>2.220299567484411e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>2.220287175525252e-14</v>
+        <v>2.220299567484411e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>2.220287175525252e-14</v>
+        <v>2.220299567484411e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>2.220287175525252e-14</v>
+        <v>2.220299567484411e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9915311499836407</v>
+        <v>0.9914453749188987</v>
       </c>
       <c r="L2" t="n">
-        <v>1.367123210901448e-09</v>
+        <v>2.220299567484411e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>2.220287175525252e-14</v>
+        <v>2.220299567484411e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>2.220287175525252e-14</v>
+        <v>2.220299567484411e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>3.068312823942996e-06</v>
+        <v>0.002259988449057046</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0047248025409554</v>
+        <v>0.0001770283794713147</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.847851586213395e-06</v>
+        <v>4.477414662758557e-07</v>
       </c>
       <c r="R2" t="n">
-        <v>2.220287175525252e-14</v>
+        <v>2.220299567484411e-14</v>
       </c>
       <c r="S2" t="n">
-        <v>6.949797384843172e-12</v>
+        <v>2.450194963566826e-10</v>
       </c>
       <c r="T2" t="n">
-        <v>2.220287175525252e-14</v>
+        <v>2.220299567484411e-14</v>
       </c>
       <c r="U2" t="n">
-        <v>2.220287175525252e-14</v>
+        <v>2.220299567484411e-14</v>
       </c>
       <c r="V2" t="n">
-        <v>0.001260412381651858</v>
+        <v>0.001252750207696925</v>
       </c>
       <c r="W2" t="n">
-        <v>2.220287175525252e-14</v>
+        <v>2.220299567484411e-14</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0001126200066372434</v>
+        <v>0.003570285328072016</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0004036605117926372</v>
+        <v>5.766155478109131e-05</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.220287175525252e-14</v>
+        <v>2.220299567484411e-14</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.0008319877842744184</v>
+        <v>6.126883598887898e-08</v>
       </c>
       <c r="AB2" t="n">
-        <v>2.220287175525252e-14</v>
+        <v>2.220299567484411e-14</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.220287175525252e-14</v>
+        <v>2.220299567484411e-14</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.001126407682272688</v>
+        <v>0.001236352421937211</v>
       </c>
       <c r="AE2" t="n">
-        <v>2.220287175525252e-14</v>
+        <v>2.220299567484411e-14</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.220287175525252e-14</v>
+        <v>2.220299567484411e-14</v>
       </c>
       <c r="AG2" t="n">
-        <v>2.220287175525252e-14</v>
+        <v>2.220299567484411e-14</v>
       </c>
       <c r="AH2" t="n">
-        <v>2.220287175525252e-14</v>
+        <v>2.220299567484411e-14</v>
       </c>
       <c r="AI2" t="n">
-        <v>2.220287175525252e-14</v>
+        <v>2.220299567484411e-14</v>
       </c>
       <c r="AJ2" t="n">
-        <v>2.220287175525252e-14</v>
+        <v>2.220299567484411e-14</v>
       </c>
       <c r="AK2" t="n">
-        <v>2.220287175525252e-14</v>
+        <v>2.220299567484411e-14</v>
       </c>
       <c r="AL2" t="n">
-        <v>2.220287175525252e-14</v>
+        <v>2.220299567484411e-14</v>
       </c>
       <c r="AM2" t="n">
-        <v>2.220287175525252e-14</v>
+        <v>2.220299567484411e-14</v>
       </c>
       <c r="AN2" t="n">
-        <v>2.220287175525252e-14</v>
+        <v>2.220299567484411e-14</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.9915311499836407</v>
+        <v>0.9914453749188987</v>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
@@ -795,124 +795,124 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.220366642605638e-14</v>
+        <v>2.220334866031805e-14</v>
       </c>
       <c r="C3" t="n">
-        <v>2.220366642605638e-14</v>
+        <v>2.220334866031805e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0002803535242184747</v>
+        <v>2.104361270108453e-09</v>
       </c>
       <c r="E3" t="n">
-        <v>8.921595045609725e-09</v>
+        <v>4.237189099718403e-09</v>
       </c>
       <c r="F3" t="n">
-        <v>2.220366642605638e-14</v>
+        <v>2.220334866031805e-14</v>
       </c>
       <c r="G3" t="n">
-        <v>2.220366642605638e-14</v>
+        <v>2.220334866031805e-14</v>
       </c>
       <c r="H3" t="n">
-        <v>2.220366642605638e-14</v>
+        <v>2.220334866031805e-14</v>
       </c>
       <c r="I3" t="n">
-        <v>2.220366642605638e-14</v>
+        <v>2.220334866031805e-14</v>
       </c>
       <c r="J3" t="n">
-        <v>2.220366642605638e-14</v>
+        <v>2.220334866031805e-14</v>
       </c>
       <c r="K3" t="n">
-        <v>2.220366642605638e-14</v>
+        <v>2.220334866031805e-14</v>
       </c>
       <c r="L3" t="n">
-        <v>0.981706722705336</v>
+        <v>0.9694321618299313</v>
       </c>
       <c r="M3" t="n">
-        <v>2.220366642605638e-14</v>
+        <v>2.220334866031805e-14</v>
       </c>
       <c r="N3" t="n">
-        <v>2.220366642605638e-14</v>
+        <v>2.220334866031805e-14</v>
       </c>
       <c r="O3" t="n">
-        <v>1.572428134126004e-05</v>
+        <v>0.001356738411395421</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0005369182346946074</v>
+        <v>1.075560979211658e-08</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.391555823828353e-06</v>
+        <v>0.0003949113537933455</v>
       </c>
       <c r="R3" t="n">
-        <v>2.220366642605638e-14</v>
+        <v>2.220334866031805e-14</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0001252101586647379</v>
+        <v>0.0008052813311312918</v>
       </c>
       <c r="T3" t="n">
-        <v>2.220366642605638e-14</v>
+        <v>2.220334866031805e-14</v>
       </c>
       <c r="U3" t="n">
-        <v>2.220366642605638e-14</v>
+        <v>2.220334866031805e-14</v>
       </c>
       <c r="V3" t="n">
-        <v>0.003585201991546413</v>
+        <v>0.0002202718148568247</v>
       </c>
       <c r="W3" t="n">
-        <v>2.220366642605638e-14</v>
+        <v>2.220334866031805e-14</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0003978242929250595</v>
+        <v>0.002369341846210209</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.006291170528398204</v>
+        <v>0.02263174343145945</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.220366642605638e-14</v>
+        <v>2.220334866031805e-14</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.220366642605638e-14</v>
+        <v>2.220334866031805e-14</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.220366642605638e-14</v>
+        <v>2.220334866031805e-14</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.220366642605638e-14</v>
+        <v>2.220334866031805e-14</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.007059473804834618</v>
+        <v>0.002789532883440192</v>
       </c>
       <c r="AE3" t="n">
-        <v>2.220366642605638e-14</v>
+        <v>2.220334866031805e-14</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.220366642605638e-14</v>
+        <v>2.220334866031805e-14</v>
       </c>
       <c r="AG3" t="n">
-        <v>2.220366642605638e-14</v>
+        <v>2.220334866031805e-14</v>
       </c>
       <c r="AH3" t="n">
-        <v>2.220366642605638e-14</v>
+        <v>2.220334866031805e-14</v>
       </c>
       <c r="AI3" t="n">
-        <v>2.220366642605638e-14</v>
+        <v>2.220334866031805e-14</v>
       </c>
       <c r="AJ3" t="n">
-        <v>2.220366642605638e-14</v>
+        <v>2.220334866031805e-14</v>
       </c>
       <c r="AK3" t="n">
-        <v>2.220366642605638e-14</v>
+        <v>2.220334866031805e-14</v>
       </c>
       <c r="AL3" t="n">
-        <v>2.220366642605638e-14</v>
+        <v>2.220334866031805e-14</v>
       </c>
       <c r="AM3" t="n">
-        <v>2.220366642605638e-14</v>
+        <v>2.220334866031805e-14</v>
       </c>
       <c r="AN3" t="n">
-        <v>2.220366642605638e-14</v>
+        <v>2.220334866031805e-14</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.981706722705336</v>
+        <v>0.9694321618299313</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
@@ -932,124 +932,124 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.220311864688814e-14</v>
+        <v>2.220301758863998e-14</v>
       </c>
       <c r="C4" t="n">
-        <v>2.220311864688814e-14</v>
+        <v>2.220301758863998e-14</v>
       </c>
       <c r="D4" t="n">
-        <v>2.241110693476259e-06</v>
+        <v>2.488864367619477e-09</v>
       </c>
       <c r="E4" t="n">
-        <v>8.259487140441151e-09</v>
+        <v>4.481806120938598e-09</v>
       </c>
       <c r="F4" t="n">
-        <v>2.220311864688814e-14</v>
+        <v>2.220301758863998e-14</v>
       </c>
       <c r="G4" t="n">
-        <v>2.220311864688814e-14</v>
+        <v>2.220301758863998e-14</v>
       </c>
       <c r="H4" t="n">
-        <v>2.220311864688814e-14</v>
+        <v>2.220301758863998e-14</v>
       </c>
       <c r="I4" t="n">
-        <v>2.220311864688814e-14</v>
+        <v>2.220301758863998e-14</v>
       </c>
       <c r="J4" t="n">
-        <v>2.220311864688814e-14</v>
+        <v>2.220301758863998e-14</v>
       </c>
       <c r="K4" t="n">
-        <v>2.220311864688814e-14</v>
+        <v>2.220301758863998e-14</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9850663375049202</v>
+        <v>0.9608725547292293</v>
       </c>
       <c r="M4" t="n">
-        <v>2.220311864688814e-14</v>
+        <v>2.220301758863998e-14</v>
       </c>
       <c r="N4" t="n">
-        <v>2.220311864688814e-14</v>
+        <v>2.220301758863998e-14</v>
       </c>
       <c r="O4" t="n">
-        <v>3.480530886317476e-05</v>
+        <v>0.001175184574243979</v>
       </c>
       <c r="P4" t="n">
-        <v>3.015637397195305e-07</v>
+        <v>2.205082453405504e-09</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0006048340371870402</v>
+        <v>0.00249313843633695</v>
       </c>
       <c r="R4" t="n">
-        <v>2.220311864688814e-14</v>
+        <v>2.220301758863998e-14</v>
       </c>
       <c r="S4" t="n">
-        <v>1.586781080749732e-05</v>
+        <v>6.09928507669031e-05</v>
       </c>
       <c r="T4" t="n">
-        <v>2.220311864688814e-14</v>
+        <v>2.220301758863998e-14</v>
       </c>
       <c r="U4" t="n">
-        <v>2.220311864688814e-14</v>
+        <v>2.220301758863998e-14</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0008472529218669541</v>
+        <v>0.0001207557971255797</v>
       </c>
       <c r="W4" t="n">
-        <v>2.220311864688814e-14</v>
+        <v>2.220301758863998e-14</v>
       </c>
       <c r="X4" t="n">
-        <v>5.151681552448953e-05</v>
+        <v>0.003161337213921627</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.01057352759974267</v>
+        <v>0.03108770150886507</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.220311864688814e-14</v>
+        <v>2.220301758863998e-14</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.220311864688814e-14</v>
+        <v>2.220301758863998e-14</v>
       </c>
       <c r="AB4" t="n">
-        <v>2.220311864688814e-14</v>
+        <v>2.220301758863998e-14</v>
       </c>
       <c r="AC4" t="n">
-        <v>2.220311864688814e-14</v>
+        <v>2.220301758863998e-14</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.00280330706654592</v>
+        <v>0.001028325713135894</v>
       </c>
       <c r="AE4" t="n">
-        <v>2.220311864688814e-14</v>
+        <v>2.220301758863998e-14</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.220311864688814e-14</v>
+        <v>2.220301758863998e-14</v>
       </c>
       <c r="AG4" t="n">
-        <v>2.220311864688814e-14</v>
+        <v>2.220301758863998e-14</v>
       </c>
       <c r="AH4" t="n">
-        <v>2.220311864688814e-14</v>
+        <v>2.220301758863998e-14</v>
       </c>
       <c r="AI4" t="n">
-        <v>2.220311864688814e-14</v>
+        <v>2.220301758863998e-14</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2.220311864688814e-14</v>
+        <v>2.220301758863998e-14</v>
       </c>
       <c r="AK4" t="n">
-        <v>2.220311864688814e-14</v>
+        <v>2.220301758863998e-14</v>
       </c>
       <c r="AL4" t="n">
-        <v>2.220311864688814e-14</v>
+        <v>2.220301758863998e-14</v>
       </c>
       <c r="AM4" t="n">
-        <v>2.220311864688814e-14</v>
+        <v>2.220301758863998e-14</v>
       </c>
       <c r="AN4" t="n">
-        <v>2.220311864688814e-14</v>
+        <v>2.220301758863998e-14</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.9850663375049202</v>
+        <v>0.9608725547292293</v>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
@@ -1069,124 +1069,124 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.220506816973255e-14</v>
+        <v>2.220451900651999e-14</v>
       </c>
       <c r="C5" t="n">
-        <v>2.220506816973255e-14</v>
+        <v>2.220451900651999e-14</v>
       </c>
       <c r="D5" t="n">
-        <v>5.343810166905586e-05</v>
+        <v>6.649095038064914e-06</v>
       </c>
       <c r="E5" t="n">
-        <v>1.2115088225698e-08</v>
+        <v>8.547805448739122e-09</v>
       </c>
       <c r="F5" t="n">
-        <v>2.220506816973255e-14</v>
+        <v>2.220451900651999e-14</v>
       </c>
       <c r="G5" t="n">
-        <v>2.220506816973255e-14</v>
+        <v>2.220451900651999e-14</v>
       </c>
       <c r="H5" t="n">
-        <v>2.220506816973255e-14</v>
+        <v>2.220451900651999e-14</v>
       </c>
       <c r="I5" t="n">
-        <v>2.220506816973255e-14</v>
+        <v>2.220451900651999e-14</v>
       </c>
       <c r="J5" t="n">
-        <v>2.220506816973255e-14</v>
+        <v>2.220451900651999e-14</v>
       </c>
       <c r="K5" t="n">
-        <v>2.220506816973255e-14</v>
+        <v>2.220451900651999e-14</v>
       </c>
       <c r="L5" t="n">
-        <v>1.415993552818756e-09</v>
+        <v>4.240675530698487e-09</v>
       </c>
       <c r="M5" t="n">
-        <v>2.220506816973255e-14</v>
+        <v>2.220451900651999e-14</v>
       </c>
       <c r="N5" t="n">
-        <v>0.9578367112033277</v>
+        <v>0.9363816375287587</v>
       </c>
       <c r="O5" t="n">
-        <v>2.459306870298663e-09</v>
+        <v>1.527762495933357e-08</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0002179137491401046</v>
+        <v>0.0002045507965704937</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.707448474298139e-05</v>
+        <v>1.283274516400439e-05</v>
       </c>
       <c r="R5" t="n">
-        <v>2.220506816973255e-14</v>
+        <v>2.220451900651999e-14</v>
       </c>
       <c r="S5" t="n">
-        <v>3.118161172937929e-09</v>
+        <v>1.526610503798424e-10</v>
       </c>
       <c r="T5" t="n">
-        <v>2.220506816973255e-14</v>
+        <v>2.220451900651999e-14</v>
       </c>
       <c r="U5" t="n">
-        <v>2.220506816973255e-14</v>
+        <v>2.220451900651999e-14</v>
       </c>
       <c r="V5" t="n">
-        <v>0.02546830268389401</v>
+        <v>0.04933713877065033</v>
       </c>
       <c r="W5" t="n">
-        <v>2.220506816973255e-14</v>
+        <v>2.220451900651999e-14</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0001504440396639436</v>
+        <v>0.0001610274111590078</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.01530753488711614</v>
+        <v>0.01351294888705805</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.220506816973255e-14</v>
+        <v>2.220451900651999e-14</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.220506816973255e-14</v>
+        <v>2.220451900651999e-14</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.220506816973255e-14</v>
+        <v>2.220451900651999e-14</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.220506816973255e-14</v>
+        <v>2.220451900651999e-14</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.0008985617412966429</v>
+        <v>0.0003831865462347576</v>
       </c>
       <c r="AE5" t="n">
-        <v>2.220506816973255e-14</v>
+        <v>2.220451900651999e-14</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.220506816973255e-14</v>
+        <v>2.220451900651999e-14</v>
       </c>
       <c r="AG5" t="n">
-        <v>2.220506816973255e-14</v>
+        <v>2.220451900651999e-14</v>
       </c>
       <c r="AH5" t="n">
-        <v>2.220506816973255e-14</v>
+        <v>2.220451900651999e-14</v>
       </c>
       <c r="AI5" t="n">
-        <v>2.220506816973255e-14</v>
+        <v>2.220451900651999e-14</v>
       </c>
       <c r="AJ5" t="n">
-        <v>2.220506816973255e-14</v>
+        <v>2.220451900651999e-14</v>
       </c>
       <c r="AK5" t="n">
-        <v>2.220506816973255e-14</v>
+        <v>2.220451900651999e-14</v>
       </c>
       <c r="AL5" t="n">
-        <v>2.220506816973255e-14</v>
+        <v>2.220451900651999e-14</v>
       </c>
       <c r="AM5" t="n">
-        <v>2.220506816973255e-14</v>
+        <v>2.220451900651999e-14</v>
       </c>
       <c r="AN5" t="n">
-        <v>2.220506816973255e-14</v>
+        <v>2.220451900651999e-14</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.9578367112033277</v>
+        <v>0.9363816375287587</v>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
@@ -1206,124 +1206,124 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.220201272818566e-14</v>
+        <v>2.221160678915741e-14</v>
       </c>
       <c r="C6" t="n">
-        <v>2.220201272818566e-14</v>
+        <v>2.221160678915741e-14</v>
       </c>
       <c r="D6" t="n">
-        <v>2.220201272818566e-14</v>
+        <v>2.221160678915741e-14</v>
       </c>
       <c r="E6" t="n">
-        <v>4.973150861142408e-07</v>
+        <v>6.404384585556238e-07</v>
       </c>
       <c r="F6" t="n">
-        <v>2.220201272818566e-14</v>
+        <v>2.221160678915741e-14</v>
       </c>
       <c r="G6" t="n">
-        <v>2.220201272818566e-14</v>
+        <v>2.221160678915741e-14</v>
       </c>
       <c r="H6" t="n">
-        <v>2.220201272818566e-14</v>
+        <v>2.221160678915741e-14</v>
       </c>
       <c r="I6" t="n">
-        <v>2.220201272818566e-14</v>
+        <v>2.221160678915741e-14</v>
       </c>
       <c r="J6" t="n">
-        <v>2.220201272818566e-14</v>
+        <v>2.221160678915741e-14</v>
       </c>
       <c r="K6" t="n">
-        <v>2.220201272818566e-14</v>
+        <v>2.221160678915741e-14</v>
       </c>
       <c r="L6" t="n">
-        <v>5.438007219703086e-07</v>
+        <v>1.130519378427337e-06</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9952609110562236</v>
+        <v>0.6562399767214429</v>
       </c>
       <c r="N6" t="n">
-        <v>2.220201272818566e-14</v>
+        <v>2.221160678915741e-14</v>
       </c>
       <c r="O6" t="n">
-        <v>2.205994011985298e-07</v>
+        <v>7.469497430004592e-09</v>
       </c>
       <c r="P6" t="n">
-        <v>7.356950178610339e-09</v>
+        <v>1.103741090122144e-11</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.97566771612898e-07</v>
+        <v>2.255844507756257e-11</v>
       </c>
       <c r="R6" t="n">
-        <v>2.220201272818566e-14</v>
+        <v>2.221160678915741e-14</v>
       </c>
       <c r="S6" t="n">
-        <v>2.220201272818566e-14</v>
+        <v>2.221160678915741e-14</v>
       </c>
       <c r="T6" t="n">
-        <v>2.220201272818566e-14</v>
+        <v>2.221160678915741e-14</v>
       </c>
       <c r="U6" t="n">
-        <v>2.220201272818566e-14</v>
+        <v>2.221160678915741e-14</v>
       </c>
       <c r="V6" t="n">
-        <v>2.885059427748794e-05</v>
+        <v>6.797127466437152e-08</v>
       </c>
       <c r="W6" t="n">
-        <v>2.220201272818566e-14</v>
+        <v>2.221160678915741e-14</v>
       </c>
       <c r="X6" t="n">
-        <v>4.463116671082475e-09</v>
+        <v>9.356791950075551e-10</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.004548462172385429</v>
+        <v>0.009782744778137493</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.220201272818566e-14</v>
+        <v>2.221160678915741e-14</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.0001601019220373863</v>
+        <v>0.3339754311182243</v>
       </c>
       <c r="AB6" t="n">
-        <v>2.220201272818566e-14</v>
+        <v>2.221160678915741e-14</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.220201272818566e-14</v>
+        <v>2.221160678915741e-14</v>
       </c>
       <c r="AD6" t="n">
-        <v>3.152406662916603e-09</v>
+        <v>1.36894126122475e-11</v>
       </c>
       <c r="AE6" t="n">
-        <v>2.220201272818566e-14</v>
+        <v>2.221160678915741e-14</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.220201272818566e-14</v>
+        <v>2.221160678915741e-14</v>
       </c>
       <c r="AG6" t="n">
-        <v>2.220201272818566e-14</v>
+        <v>2.221160678915741e-14</v>
       </c>
       <c r="AH6" t="n">
-        <v>2.220201272818566e-14</v>
+        <v>2.221160678915741e-14</v>
       </c>
       <c r="AI6" t="n">
-        <v>2.220201272818566e-14</v>
+        <v>2.221160678915741e-14</v>
       </c>
       <c r="AJ6" t="n">
-        <v>2.220201272818566e-14</v>
+        <v>2.221160678915741e-14</v>
       </c>
       <c r="AK6" t="n">
-        <v>2.220201272818566e-14</v>
+        <v>2.221160678915741e-14</v>
       </c>
       <c r="AL6" t="n">
-        <v>2.220201272818566e-14</v>
+        <v>2.221160678915741e-14</v>
       </c>
       <c r="AM6" t="n">
-        <v>2.220201272818566e-14</v>
+        <v>2.221160678915741e-14</v>
       </c>
       <c r="AN6" t="n">
-        <v>2.220201272818566e-14</v>
+        <v>2.221160678915741e-14</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.9952609110562236</v>
+        <v>0.6562399767214429</v>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>s__Methanobrevibacter_A sp900316895</t>
+          <t>s__Methanobrevibacter_A sp900316895(reject)</t>
         </is>
       </c>
     </row>
@@ -1343,124 +1343,124 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.220118437517454e-14</v>
+        <v>2.220155696580752e-14</v>
       </c>
       <c r="C7" t="n">
-        <v>2.220118437517454e-14</v>
+        <v>2.220155696580752e-14</v>
       </c>
       <c r="D7" t="n">
-        <v>5.853608373941976e-05</v>
+        <v>1.458594198441213e-11</v>
       </c>
       <c r="E7" t="n">
-        <v>5.234575579027125e-09</v>
+        <v>5.971785990790523e-09</v>
       </c>
       <c r="F7" t="n">
-        <v>2.220118437517454e-14</v>
+        <v>2.220155696580752e-14</v>
       </c>
       <c r="G7" t="n">
-        <v>2.220118437517454e-14</v>
+        <v>2.220155696580752e-14</v>
       </c>
       <c r="H7" t="n">
-        <v>2.220118437517454e-14</v>
+        <v>2.220155696580752e-14</v>
       </c>
       <c r="I7" t="n">
-        <v>2.220118437517454e-14</v>
+        <v>2.220155696580752e-14</v>
       </c>
       <c r="J7" t="n">
-        <v>2.220118437517454e-14</v>
+        <v>2.220155696580752e-14</v>
       </c>
       <c r="K7" t="n">
-        <v>2.220118437517454e-14</v>
+        <v>2.220155696580752e-14</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9509143146539784</v>
+        <v>0.9593690037028315</v>
       </c>
       <c r="M7" t="n">
-        <v>2.220118437517454e-14</v>
+        <v>2.220155696580752e-14</v>
       </c>
       <c r="N7" t="n">
-        <v>2.220118437517454e-14</v>
+        <v>2.220155696580752e-14</v>
       </c>
       <c r="O7" t="n">
-        <v>5.487915354193794e-06</v>
+        <v>0.0001833265426414618</v>
       </c>
       <c r="P7" t="n">
-        <v>2.500273706203823e-06</v>
+        <v>3.099064047180471e-10</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0001348565096316927</v>
+        <v>0.0007372918687351423</v>
       </c>
       <c r="R7" t="n">
-        <v>2.220118437517454e-14</v>
+        <v>2.220155696580752e-14</v>
       </c>
       <c r="S7" t="n">
-        <v>1.811202436829606e-05</v>
+        <v>7.872276265716675e-07</v>
       </c>
       <c r="T7" t="n">
-        <v>2.220118437517454e-14</v>
+        <v>2.220155696580752e-14</v>
       </c>
       <c r="U7" t="n">
-        <v>2.220118437517454e-14</v>
+        <v>2.220155696580752e-14</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0001955340400753692</v>
+        <v>5.989845558261499e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>2.220118437517454e-14</v>
+        <v>2.220155696580752e-14</v>
       </c>
       <c r="X7" t="n">
-        <v>0.001001726510194108</v>
+        <v>0.0002997833747175524</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.04623878081161819</v>
+        <v>0.03791838823121339</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.220118437517454e-14</v>
+        <v>2.220155696580752e-14</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.220118437517454e-14</v>
+        <v>2.220155696580752e-14</v>
       </c>
       <c r="AB7" t="n">
-        <v>2.220118437517454e-14</v>
+        <v>2.220155696580752e-14</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.220118437517454e-14</v>
+        <v>2.220155696580752e-14</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.001430145942136918</v>
+        <v>0.001431514299751725</v>
       </c>
       <c r="AE7" t="n">
-        <v>2.220118437517454e-14</v>
+        <v>2.220155696580752e-14</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.220118437517454e-14</v>
+        <v>2.220155696580752e-14</v>
       </c>
       <c r="AG7" t="n">
-        <v>2.220118437517454e-14</v>
+        <v>2.220155696580752e-14</v>
       </c>
       <c r="AH7" t="n">
-        <v>2.220118437517454e-14</v>
+        <v>2.220155696580752e-14</v>
       </c>
       <c r="AI7" t="n">
-        <v>2.220118437517454e-14</v>
+        <v>2.220155696580752e-14</v>
       </c>
       <c r="AJ7" t="n">
-        <v>2.220118437517454e-14</v>
+        <v>2.220155696580752e-14</v>
       </c>
       <c r="AK7" t="n">
-        <v>2.220118437517454e-14</v>
+        <v>2.220155696580752e-14</v>
       </c>
       <c r="AL7" t="n">
-        <v>2.220118437517454e-14</v>
+        <v>2.220155696580752e-14</v>
       </c>
       <c r="AM7" t="n">
-        <v>2.220118437517454e-14</v>
+        <v>2.220155696580752e-14</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.220118437517454e-14</v>
+        <v>2.220155696580752e-14</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.9509143146539784</v>
+        <v>0.9593690037028315</v>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
@@ -1480,124 +1480,124 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.220358016971058e-14</v>
+        <v>2.220347533032811e-14</v>
       </c>
       <c r="C8" t="n">
-        <v>2.220358016971058e-14</v>
+        <v>2.220347533032811e-14</v>
       </c>
       <c r="D8" t="n">
-        <v>2.614466327625726e-06</v>
+        <v>1.420086206265332e-06</v>
       </c>
       <c r="E8" t="n">
-        <v>1.861259323662397e-08</v>
+        <v>6.497724318318592e-09</v>
       </c>
       <c r="F8" t="n">
-        <v>2.220358016971058e-14</v>
+        <v>2.220347533032811e-14</v>
       </c>
       <c r="G8" t="n">
-        <v>2.220358016971058e-14</v>
+        <v>2.220347533032811e-14</v>
       </c>
       <c r="H8" t="n">
-        <v>2.220358016971058e-14</v>
+        <v>2.220347533032811e-14</v>
       </c>
       <c r="I8" t="n">
-        <v>2.220358016971058e-14</v>
+        <v>2.220347533032811e-14</v>
       </c>
       <c r="J8" t="n">
-        <v>2.220358016971058e-14</v>
+        <v>2.220347533032811e-14</v>
       </c>
       <c r="K8" t="n">
-        <v>2.220358016971058e-14</v>
+        <v>2.220347533032811e-14</v>
       </c>
       <c r="L8" t="n">
-        <v>4.056266722323811e-09</v>
+        <v>1.332037135983391e-09</v>
       </c>
       <c r="M8" t="n">
-        <v>2.220358016971058e-14</v>
+        <v>2.220347533032811e-14</v>
       </c>
       <c r="N8" t="n">
-        <v>0.9556601340111505</v>
+        <v>0.9289060666954105</v>
       </c>
       <c r="O8" t="n">
-        <v>4.120194241349922e-09</v>
+        <v>1.488038524134431e-07</v>
       </c>
       <c r="P8" t="n">
-        <v>0.002246124801280825</v>
+        <v>0.0001040708972397788</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.607046366018927e-07</v>
+        <v>4.626331521337124e-05</v>
       </c>
       <c r="R8" t="n">
-        <v>2.220358016971058e-14</v>
+        <v>2.220347533032811e-14</v>
       </c>
       <c r="S8" t="n">
-        <v>2.220358016971058e-14</v>
+        <v>1.822439121456582e-09</v>
       </c>
       <c r="T8" t="n">
-        <v>2.220358016971058e-14</v>
+        <v>2.220347533032811e-14</v>
       </c>
       <c r="U8" t="n">
-        <v>2.220358016971058e-14</v>
+        <v>2.220347533032811e-14</v>
       </c>
       <c r="V8" t="n">
-        <v>0.007475110936974812</v>
+        <v>0.05861213855755028</v>
       </c>
       <c r="W8" t="n">
-        <v>2.220358016971058e-14</v>
+        <v>2.220347533032811e-14</v>
       </c>
       <c r="X8" t="n">
-        <v>2.226492406638563e-05</v>
+        <v>0.0001736811460157397</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.03419814986839374</v>
+        <v>0.00785993584260072</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.220358016971058e-14</v>
+        <v>2.220347533032811e-14</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.220358016971058e-14</v>
+        <v>2.220347533032811e-14</v>
       </c>
       <c r="AB8" t="n">
-        <v>2.220358016971058e-14</v>
+        <v>2.220347533032811e-14</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.220358016971058e-14</v>
+        <v>2.220347533032811e-14</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.0003954134974937694</v>
+        <v>0.004296265003110517</v>
       </c>
       <c r="AE8" t="n">
-        <v>2.220358016971058e-14</v>
+        <v>2.220347533032811e-14</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.220358016971058e-14</v>
+        <v>2.220347533032811e-14</v>
       </c>
       <c r="AG8" t="n">
-        <v>2.220358016971058e-14</v>
+        <v>2.220347533032811e-14</v>
       </c>
       <c r="AH8" t="n">
-        <v>2.220358016971058e-14</v>
+        <v>2.220347533032811e-14</v>
       </c>
       <c r="AI8" t="n">
-        <v>2.220358016971058e-14</v>
+        <v>2.220347533032811e-14</v>
       </c>
       <c r="AJ8" t="n">
-        <v>2.220358016971058e-14</v>
+        <v>2.220347533032811e-14</v>
       </c>
       <c r="AK8" t="n">
-        <v>2.220358016971058e-14</v>
+        <v>2.220347533032811e-14</v>
       </c>
       <c r="AL8" t="n">
-        <v>2.220358016971058e-14</v>
+        <v>2.220347533032811e-14</v>
       </c>
       <c r="AM8" t="n">
-        <v>2.220358016971058e-14</v>
+        <v>2.220347533032811e-14</v>
       </c>
       <c r="AN8" t="n">
-        <v>2.220358016971058e-14</v>
+        <v>2.220347533032811e-14</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.9556601340111505</v>
+        <v>0.9289060666954105</v>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
@@ -1617,124 +1617,124 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.600772902216883e-14</v>
+        <v>2.220197799378234e-14</v>
       </c>
       <c r="C9" t="n">
-        <v>4.600772902216883e-14</v>
+        <v>2.220197799378234e-14</v>
       </c>
       <c r="D9" t="n">
-        <v>9.993959101364348e-10</v>
+        <v>2.220197799378234e-14</v>
       </c>
       <c r="E9" t="n">
-        <v>6.551249189844464e-07</v>
+        <v>1.314371459694454e-07</v>
       </c>
       <c r="F9" t="n">
-        <v>4.600772902216875e-14</v>
+        <v>2.220197799378234e-14</v>
       </c>
       <c r="G9" t="n">
-        <v>4.60077290221689e-14</v>
+        <v>2.220197799378234e-14</v>
       </c>
       <c r="H9" t="n">
-        <v>4.600772902216866e-14</v>
+        <v>2.220197799378234e-14</v>
       </c>
       <c r="I9" t="n">
-        <v>4.600772902216866e-14</v>
+        <v>2.220197799378234e-14</v>
       </c>
       <c r="J9" t="n">
-        <v>4.600772902216866e-14</v>
+        <v>2.220197799378234e-14</v>
       </c>
       <c r="K9" t="n">
-        <v>4.600772902216881e-14</v>
+        <v>2.220197799378234e-14</v>
       </c>
       <c r="L9" t="n">
-        <v>1.326117061148636e-06</v>
+        <v>1.107171335599579e-07</v>
       </c>
       <c r="M9" t="n">
-        <v>4.600772902216881e-14</v>
+        <v>2.220197799378234e-14</v>
       </c>
       <c r="N9" t="n">
-        <v>4.600772902216881e-14</v>
+        <v>2.220197799378234e-14</v>
       </c>
       <c r="O9" t="n">
-        <v>0.9991896704943622</v>
+        <v>0.9672869327220138</v>
       </c>
       <c r="P9" t="n">
-        <v>1.706844044401681e-06</v>
+        <v>2.326291581187151e-11</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.642881073739898e-05</v>
+        <v>1.281223666095868e-05</v>
       </c>
       <c r="R9" t="n">
-        <v>4.600772902216895e-14</v>
+        <v>2.220197799378234e-14</v>
       </c>
       <c r="S9" t="n">
-        <v>4.600772902216887e-14</v>
+        <v>2.220197799378234e-14</v>
       </c>
       <c r="T9" t="n">
-        <v>4.600772902216898e-14</v>
+        <v>2.220197799378234e-14</v>
       </c>
       <c r="U9" t="n">
-        <v>4.600772902216875e-14</v>
+        <v>2.220197799378234e-14</v>
       </c>
       <c r="V9" t="n">
-        <v>8.800555654875533e-05</v>
+        <v>4.822024895514128e-05</v>
       </c>
       <c r="W9" t="n">
-        <v>4.600772902216892e-14</v>
+        <v>2.220197799378234e-14</v>
       </c>
       <c r="X9" t="n">
-        <v>7.150241876143911e-11</v>
+        <v>4.344630109480748e-06</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.0006366238877004206</v>
+        <v>0.001940887826574771</v>
       </c>
       <c r="Z9" t="n">
-        <v>4.600772902216895e-14</v>
+        <v>2.220197799378234e-14</v>
       </c>
       <c r="AA9" t="n">
-        <v>5.527461431330235e-05</v>
+        <v>0.0307059366402331</v>
       </c>
       <c r="AB9" t="n">
-        <v>4.600772902216895e-14</v>
+        <v>2.220197799378234e-14</v>
       </c>
       <c r="AC9" t="n">
-        <v>4.600772902216895e-14</v>
+        <v>2.220197799378234e-14</v>
       </c>
       <c r="AD9" t="n">
-        <v>3.074781273462354e-07</v>
+        <v>6.23517266421041e-07</v>
       </c>
       <c r="AE9" t="n">
-        <v>4.600772902216875e-14</v>
+        <v>2.220197799378234e-14</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.600772902216898e-14</v>
+        <v>2.220197799378234e-14</v>
       </c>
       <c r="AG9" t="n">
-        <v>4.600772902216898e-14</v>
+        <v>2.220197799378234e-14</v>
       </c>
       <c r="AH9" t="n">
-        <v>4.600772902216898e-14</v>
+        <v>2.220197799378234e-14</v>
       </c>
       <c r="AI9" t="n">
-        <v>4.600772902216894e-14</v>
+        <v>2.220197799378234e-14</v>
       </c>
       <c r="AJ9" t="n">
-        <v>4.600772902216891e-14</v>
+        <v>2.220197799378234e-14</v>
       </c>
       <c r="AK9" t="n">
-        <v>4.600772902216891e-14</v>
+        <v>2.220197799378234e-14</v>
       </c>
       <c r="AL9" t="n">
-        <v>4.600772902216891e-14</v>
+        <v>2.220197799378234e-14</v>
       </c>
       <c r="AM9" t="n">
-        <v>4.600772902216891e-14</v>
+        <v>2.220197799378234e-14</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.600772902216894e-14</v>
+        <v>2.220197799378234e-14</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.9991896704943622</v>
+        <v>0.9672869327220138</v>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
@@ -1750,959 +1750,1233 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>RUG526.fasta</t>
+          <t>RUG492.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.220465452929254e-14</v>
+        <v>4.434428501175613e-14</v>
       </c>
       <c r="C10" t="n">
-        <v>2.220465452929254e-14</v>
+        <v>4.434428501175613e-14</v>
       </c>
       <c r="D10" t="n">
-        <v>0.002825359044669716</v>
+        <v>1.179711260981272e-05</v>
       </c>
       <c r="E10" t="n">
-        <v>7.17634823324816e-09</v>
+        <v>1.24564795291232e-07</v>
       </c>
       <c r="F10" t="n">
-        <v>2.220465452929254e-14</v>
+        <v>4.434428501175609e-14</v>
       </c>
       <c r="G10" t="n">
-        <v>2.220465452929254e-14</v>
+        <v>4.434428501175609e-14</v>
       </c>
       <c r="H10" t="n">
-        <v>2.220465452929254e-14</v>
+        <v>4.434428501175607e-14</v>
       </c>
       <c r="I10" t="n">
-        <v>2.220465452929254e-14</v>
+        <v>4.434428501175607e-14</v>
       </c>
       <c r="J10" t="n">
-        <v>2.220465452929254e-14</v>
+        <v>4.434428501175607e-14</v>
       </c>
       <c r="K10" t="n">
-        <v>2.220465452929254e-14</v>
+        <v>4.434428501175613e-14</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9644428160577044</v>
+        <v>9.216818766915838e-07</v>
       </c>
       <c r="M10" t="n">
-        <v>2.220465452929254e-14</v>
+        <v>4.434428501175613e-14</v>
       </c>
       <c r="N10" t="n">
-        <v>2.220465452929254e-14</v>
+        <v>9.900464018810953e-06</v>
       </c>
       <c r="O10" t="n">
-        <v>4.946071153210093e-05</v>
+        <v>3.14314378490469e-06</v>
       </c>
       <c r="P10" t="n">
-        <v>5.448019815990386e-05</v>
+        <v>0.6960518585456449</v>
       </c>
       <c r="Q10" t="n">
-        <v>9.019597828830019e-05</v>
+        <v>6.462036705223888e-08</v>
       </c>
       <c r="R10" t="n">
-        <v>2.220465452929254e-14</v>
+        <v>4.434428501175613e-14</v>
       </c>
       <c r="S10" t="n">
-        <v>0.02044319088376963</v>
+        <v>4.434428501175679e-14</v>
       </c>
       <c r="T10" t="n">
-        <v>2.220465452929254e-14</v>
+        <v>4.434428501175679e-14</v>
       </c>
       <c r="U10" t="n">
-        <v>2.220465452929254e-14</v>
+        <v>4.434428501175679e-14</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0004729123620889241</v>
+        <v>0.2238305085626595</v>
       </c>
       <c r="W10" t="n">
-        <v>2.220465452929254e-14</v>
+        <v>4.434428501175681e-14</v>
       </c>
       <c r="X10" t="n">
-        <v>0.0001268660843398137</v>
+        <v>3.241120426956245e-06</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.008419542221742585</v>
+        <v>0.07962114711119402</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.220465452929254e-14</v>
+        <v>4.434428501175679e-14</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.220465452929254e-14</v>
+        <v>4.434428501175679e-14</v>
       </c>
       <c r="AB10" t="n">
-        <v>2.220465452929254e-14</v>
+        <v>4.434428501175679e-14</v>
       </c>
       <c r="AC10" t="n">
-        <v>2.220465452929254e-14</v>
+        <v>4.434428501175679e-14</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.003075169280734707</v>
+        <v>0.0004672930713799501</v>
       </c>
       <c r="AE10" t="n">
-        <v>2.220465452929254e-14</v>
+        <v>4.434428501175679e-14</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.220465452929254e-14</v>
+        <v>4.434428501175679e-14</v>
       </c>
       <c r="AG10" t="n">
-        <v>2.220465452929254e-14</v>
+        <v>4.434428501175679e-14</v>
       </c>
       <c r="AH10" t="n">
-        <v>2.220465452929254e-14</v>
+        <v>4.434428501175679e-14</v>
       </c>
       <c r="AI10" t="n">
-        <v>2.220465452929254e-14</v>
+        <v>4.434428501175676e-14</v>
       </c>
       <c r="AJ10" t="n">
-        <v>2.220465452929254e-14</v>
+        <v>4.434428501175676e-14</v>
       </c>
       <c r="AK10" t="n">
-        <v>2.220465452929254e-14</v>
+        <v>4.434428501175676e-14</v>
       </c>
       <c r="AL10" t="n">
-        <v>2.220465452929254e-14</v>
+        <v>4.434428501175676e-14</v>
       </c>
       <c r="AM10" t="n">
-        <v>2.220465452929254e-14</v>
+        <v>4.434428501175676e-14</v>
       </c>
       <c r="AN10" t="n">
-        <v>2.220465452929254e-14</v>
+        <v>4.434428501175676e-14</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.9644428160577044</v>
+        <v>0.6960518585456449</v>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>s__Methanobrevibacter_A sp900314695</t>
+          <t>s__Methanobrevibacter_A sp900319535</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>s__Methanobrevibacter_A sp900314695</t>
+          <t>s__Methanobrevibacter_A sp900319535</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>RUG545.fasta</t>
+          <t>RUG526.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220413421873784e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220413421873784e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>5.827506274026063e-13</v>
+        <v>3.540815234711404e-08</v>
       </c>
       <c r="E11" t="n">
-        <v>1.619061280155109e-07</v>
+        <v>4.333566745119874e-09</v>
       </c>
       <c r="F11" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220413421873784e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220413421873784e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220413421873784e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220413421873784e-14</v>
       </c>
       <c r="J11" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220413421873784e-14</v>
       </c>
       <c r="K11" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220413421873784e-14</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0007022784594307749</v>
+        <v>0.9780612423166269</v>
       </c>
       <c r="M11" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220413421873784e-14</v>
       </c>
       <c r="N11" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220413421873784e-14</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0002773756266986178</v>
+        <v>0.0007791141760923149</v>
       </c>
       <c r="P11" t="n">
-        <v>2.147091482075017e-09</v>
+        <v>1.371532058830271e-07</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.9952152114278859</v>
+        <v>0.0003030563388101656</v>
       </c>
       <c r="R11" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220413421873784e-14</v>
       </c>
       <c r="S11" t="n">
-        <v>2.229569990403341e-14</v>
+        <v>0.004767549639617561</v>
       </c>
       <c r="T11" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220413421873784e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220413421873784e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0.000133689109807733</v>
+        <v>0.0002428469413266936</v>
       </c>
       <c r="W11" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220413421873784e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>1.816172019100051e-07</v>
+        <v>0.0007174265366258171</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.003442861183309004</v>
+        <v>0.01087227221345332</v>
       </c>
       <c r="Z11" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220413421873784e-14</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.0002262373260897053</v>
+        <v>2.220413421873784e-14</v>
       </c>
       <c r="AB11" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220413421873784e-14</v>
       </c>
       <c r="AC11" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220413421873784e-14</v>
       </c>
       <c r="AD11" t="n">
-        <v>2.001195149448198e-06</v>
+        <v>0.004256314941900582</v>
       </c>
       <c r="AE11" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220413421873784e-14</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220413421873784e-14</v>
       </c>
       <c r="AG11" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220413421873784e-14</v>
       </c>
       <c r="AH11" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220413421873784e-14</v>
       </c>
       <c r="AI11" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220413421873784e-14</v>
       </c>
       <c r="AJ11" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220413421873784e-14</v>
       </c>
       <c r="AK11" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220413421873784e-14</v>
       </c>
       <c r="AL11" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220413421873784e-14</v>
       </c>
       <c r="AM11" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220413421873784e-14</v>
       </c>
       <c r="AN11" t="n">
-        <v>2.22956999040334e-14</v>
+        <v>2.220413421873784e-14</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.9952152114278859</v>
+        <v>0.9780612423166269</v>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>s__Methanobrevibacter_A sp900319985</t>
+          <t>s__Methanobrevibacter_A sp900314695</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>s__Methanobrevibacter_A sp900319985</t>
+          <t>s__Methanobrevibacter_A sp900314695</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>RUG593.fasta</t>
+          <t>RUG545.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>2.220479603929503e-14</v>
       </c>
       <c r="C12" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>2.220479603929503e-14</v>
       </c>
       <c r="D12" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>6.445007920302291e-14</v>
       </c>
       <c r="E12" t="n">
-        <v>4.227304523162597e-07</v>
+        <v>1.673587379834743e-08</v>
       </c>
       <c r="F12" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>2.220479603929503e-14</v>
       </c>
       <c r="G12" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>2.220479603929503e-14</v>
       </c>
       <c r="H12" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>2.220479603929503e-14</v>
       </c>
       <c r="I12" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>2.220479603929503e-14</v>
       </c>
       <c r="J12" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>2.220479603929503e-14</v>
       </c>
       <c r="K12" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>2.220479603929503e-14</v>
       </c>
       <c r="L12" t="n">
-        <v>1.216220683844335e-08</v>
+        <v>0.005223580858654413</v>
       </c>
       <c r="M12" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>2.220479603929503e-14</v>
       </c>
       <c r="N12" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>2.220479603929503e-14</v>
       </c>
       <c r="O12" t="n">
-        <v>4.994198233872785e-06</v>
+        <v>0.01232890667759291</v>
       </c>
       <c r="P12" t="n">
-        <v>3.822361802954221e-09</v>
+        <v>1.682205764860924e-11</v>
       </c>
       <c r="Q12" t="n">
-        <v>7.118845464234278e-06</v>
+        <v>0.9688871891413597</v>
       </c>
       <c r="R12" t="n">
-        <v>0.9946002210382925</v>
+        <v>2.220479603929503e-14</v>
       </c>
       <c r="S12" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>7.493234441752205e-08</v>
       </c>
       <c r="T12" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>2.220479603929503e-14</v>
       </c>
       <c r="U12" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>2.220479603929503e-14</v>
       </c>
       <c r="V12" t="n">
-        <v>4.80406077844884e-08</v>
+        <v>1.043828882922072e-05</v>
       </c>
       <c r="W12" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>2.220479603929503e-14</v>
       </c>
       <c r="X12" t="n">
-        <v>9.352105088640989e-11</v>
+        <v>0.0001202530782700427</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.005386946420420684</v>
+        <v>0.01316804325690805</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>2.220479603929503e-14</v>
       </c>
       <c r="AA12" t="n">
-        <v>2.326033513200056e-07</v>
+        <v>7.902331105502799e-14</v>
       </c>
       <c r="AB12" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>2.220479603929503e-14</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>2.220479603929503e-14</v>
       </c>
       <c r="AD12" t="n">
-        <v>4.446609567604508e-11</v>
+        <v>0.0002614970126023295</v>
       </c>
       <c r="AE12" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>2.220479603929503e-14</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>2.220479603929503e-14</v>
       </c>
       <c r="AG12" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>2.220479603929503e-14</v>
       </c>
       <c r="AH12" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>2.220479603929503e-14</v>
       </c>
       <c r="AI12" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>2.220479603929503e-14</v>
       </c>
       <c r="AJ12" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>2.220479603929503e-14</v>
       </c>
       <c r="AK12" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>2.220479603929503e-14</v>
       </c>
       <c r="AL12" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>2.220479603929503e-14</v>
       </c>
       <c r="AM12" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>2.220479603929503e-14</v>
       </c>
       <c r="AN12" t="n">
-        <v>2.220200911480724e-14</v>
+        <v>2.220479603929503e-14</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.9946002210382925</v>
+        <v>0.9688871891413597</v>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>s__Methanobrevibacter_A sp900320515</t>
+          <t>s__Methanobrevibacter_A sp900319985</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>s__Methanobrevibacter_A sp900320515</t>
+          <t>s__Methanobrevibacter_A sp900319985</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>RUG648.fasta</t>
+          <t>RUG593.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.220287653562837e-14</v>
+        <v>2.220205937171563e-14</v>
       </c>
       <c r="C13" t="n">
-        <v>2.220287653562837e-14</v>
+        <v>2.220205937171563e-14</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0007122428844148672</v>
+        <v>2.220205937171563e-14</v>
       </c>
       <c r="E13" t="n">
-        <v>1.435851443341324e-08</v>
+        <v>1.057397523012439e-06</v>
       </c>
       <c r="F13" t="n">
-        <v>2.220287653562837e-14</v>
+        <v>2.220205937171563e-14</v>
       </c>
       <c r="G13" t="n">
-        <v>2.220287653562837e-14</v>
+        <v>2.220205937171563e-14</v>
       </c>
       <c r="H13" t="n">
-        <v>2.220287653562837e-14</v>
+        <v>2.220205937171563e-14</v>
       </c>
       <c r="I13" t="n">
-        <v>2.220287653562837e-14</v>
+        <v>2.220205937171563e-14</v>
       </c>
       <c r="J13" t="n">
-        <v>2.220287653562837e-14</v>
+        <v>2.220205937171563e-14</v>
       </c>
       <c r="K13" t="n">
-        <v>2.220287653562837e-14</v>
+        <v>2.220205937171563e-14</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0001132219105716086</v>
+        <v>6.334866219471888e-08</v>
       </c>
       <c r="M13" t="n">
-        <v>2.220287653562837e-14</v>
+        <v>2.220205937171563e-14</v>
       </c>
       <c r="N13" t="n">
-        <v>2.220287653562837e-14</v>
+        <v>2.220205937171563e-14</v>
       </c>
       <c r="O13" t="n">
-        <v>1.096598100987115e-05</v>
+        <v>3.487249754919062e-07</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0001462943607082002</v>
+        <v>2.58971659464486e-11</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.00149426138569927</v>
+        <v>2.318396374078154e-11</v>
       </c>
       <c r="R13" t="n">
-        <v>2.220287653562837e-14</v>
+        <v>0.9901286227274366</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9885399163856663</v>
+        <v>2.220205937171563e-14</v>
       </c>
       <c r="T13" t="n">
-        <v>2.220287653562837e-14</v>
+        <v>2.220205937171563e-14</v>
       </c>
       <c r="U13" t="n">
-        <v>2.220287653562837e-14</v>
+        <v>2.220205937171563e-14</v>
       </c>
       <c r="V13" t="n">
-        <v>0.005018147159941702</v>
+        <v>2.213178846458379e-08</v>
       </c>
       <c r="W13" t="n">
-        <v>2.220287653562837e-14</v>
+        <v>2.220205937171563e-14</v>
       </c>
       <c r="X13" t="n">
-        <v>8.960174621558659e-05</v>
+        <v>3.269831414332704e-11</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.000345939617277129</v>
+        <v>0.009778967328276</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.220287653562837e-14</v>
+        <v>2.220205937171563e-14</v>
       </c>
       <c r="AA13" t="n">
-        <v>2.220287653562837e-14</v>
+        <v>9.091825727114548e-05</v>
       </c>
       <c r="AB13" t="n">
-        <v>2.220287653562837e-14</v>
+        <v>2.220205937171563e-14</v>
       </c>
       <c r="AC13" t="n">
-        <v>2.220287653562837e-14</v>
+        <v>2.220205937171563e-14</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.003529394209359232</v>
+        <v>1.665986106500868e-12</v>
       </c>
       <c r="AE13" t="n">
-        <v>2.220287653562837e-14</v>
+        <v>2.220205937171563e-14</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.220287653562837e-14</v>
+        <v>2.220205937171563e-14</v>
       </c>
       <c r="AG13" t="n">
-        <v>2.220287653562837e-14</v>
+        <v>2.220205937171563e-14</v>
       </c>
       <c r="AH13" t="n">
-        <v>2.220287653562837e-14</v>
+        <v>2.220205937171563e-14</v>
       </c>
       <c r="AI13" t="n">
-        <v>2.220287653562837e-14</v>
+        <v>2.220205937171563e-14</v>
       </c>
       <c r="AJ13" t="n">
-        <v>2.220287653562837e-14</v>
+        <v>2.220205937171563e-14</v>
       </c>
       <c r="AK13" t="n">
-        <v>2.220287653562837e-14</v>
+        <v>2.220205937171563e-14</v>
       </c>
       <c r="AL13" t="n">
-        <v>2.220287653562837e-14</v>
+        <v>2.220205937171563e-14</v>
       </c>
       <c r="AM13" t="n">
-        <v>2.220287653562837e-14</v>
+        <v>2.220205937171563e-14</v>
       </c>
       <c r="AN13" t="n">
-        <v>2.220287653562837e-14</v>
+        <v>2.220205937171563e-14</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.9885399163856663</v>
+        <v>0.9901286227274366</v>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>s__Methanobrevibacter_A sp900320955</t>
+          <t>s__Methanobrevibacter_A sp900320515</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>s__Methanobrevibacter_A sp900320955</t>
+          <t>s__Methanobrevibacter_A sp900320515</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>RUG780.fasta</t>
+          <t>RUG648.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.247648080183055e-14</v>
+        <v>2.220587903310981e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>7.247648080183055e-14</v>
+        <v>2.220587903310981e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0.003760548986056855</v>
+        <v>4.040264093692392e-10</v>
       </c>
       <c r="E14" t="n">
-        <v>1.090732548728597e-06</v>
+        <v>4.669000639046299e-09</v>
       </c>
       <c r="F14" t="n">
-        <v>7.247648080183055e-14</v>
+        <v>2.220587903310981e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>7.247648080183047e-14</v>
+        <v>2.220587903310981e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>7.247648080183047e-14</v>
+        <v>2.220587903310981e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>7.247648080183047e-14</v>
+        <v>2.220587903310981e-14</v>
       </c>
       <c r="J14" t="n">
-        <v>7.247648080183047e-14</v>
+        <v>2.220587903310981e-14</v>
       </c>
       <c r="K14" t="n">
-        <v>7.247648080183047e-14</v>
+        <v>2.220587903310981e-14</v>
       </c>
       <c r="L14" t="n">
-        <v>7.425131780479693e-08</v>
+        <v>0.009665409714554001</v>
       </c>
       <c r="M14" t="n">
-        <v>7.247648080183049e-14</v>
+        <v>2.220587903310981e-14</v>
       </c>
       <c r="N14" t="n">
-        <v>2.050940518342588e-10</v>
+        <v>2.220587903310981e-14</v>
       </c>
       <c r="O14" t="n">
-        <v>2.071291478629366e-08</v>
+        <v>0.005898785780973407</v>
       </c>
       <c r="P14" t="n">
-        <v>0.600143564238902</v>
+        <v>1.379608975688712e-08</v>
       </c>
       <c r="Q14" t="n">
-        <v>7.247610324671002e-12</v>
+        <v>0.001054051033600007</v>
       </c>
       <c r="R14" t="n">
-        <v>7.24764808018316e-14</v>
+        <v>2.220587903310981e-14</v>
       </c>
       <c r="S14" t="n">
-        <v>7.247648080183168e-14</v>
+        <v>0.9626603999794148</v>
       </c>
       <c r="T14" t="n">
-        <v>7.247648080183168e-14</v>
+        <v>2.220587903310981e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>7.247648080183168e-14</v>
+        <v>2.220587903310981e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0.1414591567333815</v>
+        <v>0.0003791834497948383</v>
       </c>
       <c r="W14" t="n">
-        <v>7.247648080183055e-14</v>
+        <v>2.220587903310981e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>4.373100291282673e-06</v>
+        <v>0.001544946819160765</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.254592306165177</v>
+        <v>0.01171963434877063</v>
       </c>
       <c r="Z14" t="n">
-        <v>7.247648080183166e-14</v>
+        <v>2.220587903310981e-14</v>
       </c>
       <c r="AA14" t="n">
-        <v>7.247648080183168e-14</v>
+        <v>2.220587903310981e-14</v>
       </c>
       <c r="AB14" t="n">
-        <v>7.247648080183168e-14</v>
+        <v>2.220587903310981e-14</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.247648080183168e-14</v>
+        <v>2.220587903310981e-14</v>
       </c>
       <c r="AD14" t="n">
-        <v>3.886486503984207e-05</v>
+        <v>0.007077570003993017</v>
       </c>
       <c r="AE14" t="n">
-        <v>7.247648080183168e-14</v>
+        <v>2.220587903310981e-14</v>
       </c>
       <c r="AF14" t="n">
-        <v>7.247648080183168e-14</v>
+        <v>2.220587903310981e-14</v>
       </c>
       <c r="AG14" t="n">
-        <v>7.247648080183168e-14</v>
+        <v>2.220587903310981e-14</v>
       </c>
       <c r="AH14" t="n">
-        <v>7.247648080183168e-14</v>
+        <v>2.220587903310981e-14</v>
       </c>
       <c r="AI14" t="n">
-        <v>7.247648080183171e-14</v>
+        <v>2.220587903310981e-14</v>
       </c>
       <c r="AJ14" t="n">
-        <v>7.247648080183171e-14</v>
+        <v>2.220587903310981e-14</v>
       </c>
       <c r="AK14" t="n">
-        <v>7.247648080183171e-14</v>
+        <v>2.220587903310981e-14</v>
       </c>
       <c r="AL14" t="n">
-        <v>7.247648080183171e-14</v>
+        <v>2.220587903310981e-14</v>
       </c>
       <c r="AM14" t="n">
-        <v>7.247648080183171e-14</v>
+        <v>2.220587903310981e-14</v>
       </c>
       <c r="AN14" t="n">
-        <v>7.247648080183171e-14</v>
+        <v>2.220587903310981e-14</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.600143564238902</v>
+        <v>0.9626603999794148</v>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>s__Methanobrevibacter_A sp900319535</t>
+          <t>s__Methanobrevibacter_A sp900320955</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>s__Methanobrevibacter_A sp900319535</t>
+          <t>s__Methanobrevibacter_A sp900320955</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>RUG787.fasta</t>
+          <t>RUG780.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.220203214330684e-14</v>
+        <v>4.292315484373484e-14</v>
       </c>
       <c r="C15" t="n">
-        <v>2.220203214330684e-14</v>
+        <v>4.292315484373484e-14</v>
       </c>
       <c r="D15" t="n">
-        <v>2.220203214330684e-14</v>
+        <v>3.390818858351743e-05</v>
       </c>
       <c r="E15" t="n">
-        <v>3.371239243194066e-07</v>
+        <v>2.776636561758994e-07</v>
       </c>
       <c r="F15" t="n">
-        <v>2.220203214330684e-14</v>
+        <v>4.292315484373484e-14</v>
       </c>
       <c r="G15" t="n">
-        <v>1.066794369540721e-13</v>
+        <v>4.292315484373485e-14</v>
       </c>
       <c r="H15" t="n">
-        <v>2.220203214330684e-14</v>
+        <v>4.292315484373485e-14</v>
       </c>
       <c r="I15" t="n">
-        <v>2.220203214330684e-14</v>
+        <v>4.292315484373485e-14</v>
       </c>
       <c r="J15" t="n">
-        <v>2.220203214330684e-14</v>
+        <v>4.292315484373485e-14</v>
       </c>
       <c r="K15" t="n">
-        <v>2.220203214330684e-14</v>
+        <v>4.292315484373485e-14</v>
       </c>
       <c r="L15" t="n">
-        <v>8.350095699752995e-12</v>
+        <v>4.944457106591366e-08</v>
       </c>
       <c r="M15" t="n">
-        <v>2.220203214330684e-14</v>
+        <v>4.292315484373486e-14</v>
       </c>
       <c r="N15" t="n">
-        <v>2.220203214330684e-14</v>
+        <v>9.530234806051301e-09</v>
       </c>
       <c r="O15" t="n">
-        <v>1.074052515403337e-08</v>
+        <v>3.266373109493038e-07</v>
       </c>
       <c r="P15" t="n">
-        <v>2.852984650785802e-08</v>
+        <v>0.3657770610884409</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.129218109698645e-12</v>
+        <v>8.769221768636708e-11</v>
       </c>
       <c r="R15" t="n">
-        <v>0.9894150716342981</v>
+        <v>4.292315484373486e-14</v>
       </c>
       <c r="S15" t="n">
-        <v>2.220203214330684e-14</v>
+        <v>4.29231548437349e-14</v>
       </c>
       <c r="T15" t="n">
-        <v>2.220203214330684e-14</v>
+        <v>4.29231548437349e-14</v>
       </c>
       <c r="U15" t="n">
-        <v>2.220203214330684e-14</v>
+        <v>4.29231548437349e-14</v>
       </c>
       <c r="V15" t="n">
-        <v>7.02080630910011e-08</v>
+        <v>0.2240558699011448</v>
       </c>
       <c r="W15" t="n">
-        <v>2.220203214330684e-14</v>
+        <v>4.29231548437349e-14</v>
       </c>
       <c r="X15" t="n">
-        <v>1.695094402377445e-10</v>
+        <v>1.766528930752175e-06</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.0105844815818515</v>
+        <v>0.410051239052898</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.220203214330684e-14</v>
+        <v>4.292315484373492e-14</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.548829950697301e-13</v>
+        <v>4.292315484373492e-14</v>
       </c>
       <c r="AB15" t="n">
-        <v>2.220203214330684e-14</v>
+        <v>4.292315484373492e-14</v>
       </c>
       <c r="AC15" t="n">
-        <v>2.220203214330684e-14</v>
+        <v>4.292315484373492e-14</v>
       </c>
       <c r="AD15" t="n">
-        <v>1.641532468050527e-12</v>
+        <v>7.949187533422614e-05</v>
       </c>
       <c r="AE15" t="n">
-        <v>2.220203214330684e-14</v>
+        <v>4.292315484373486e-14</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.220203214330684e-14</v>
+        <v>4.292315484373486e-14</v>
       </c>
       <c r="AG15" t="n">
-        <v>2.220203214330684e-14</v>
+        <v>4.292315484373486e-14</v>
       </c>
       <c r="AH15" t="n">
-        <v>2.220203214330684e-14</v>
+        <v>4.292315484373486e-14</v>
       </c>
       <c r="AI15" t="n">
-        <v>2.220203214330684e-14</v>
+        <v>4.292315484373477e-14</v>
       </c>
       <c r="AJ15" t="n">
-        <v>2.220203214330684e-14</v>
+        <v>4.292315484373477e-14</v>
       </c>
       <c r="AK15" t="n">
-        <v>2.220203214330684e-14</v>
+        <v>4.292315484373477e-14</v>
       </c>
       <c r="AL15" t="n">
-        <v>2.220203214330684e-14</v>
+        <v>4.292315484373477e-14</v>
       </c>
       <c r="AM15" t="n">
-        <v>2.220203214330684e-14</v>
+        <v>4.292315484373477e-14</v>
       </c>
       <c r="AN15" t="n">
-        <v>2.220203214330684e-14</v>
+        <v>4.292315484373477e-14</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.9894150716342981</v>
+        <v>0.410051239052898</v>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>s__Methanobrevibacter_A sp900320515</t>
+          <t>s__Methanobrevibacter_A sp902768765</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>s__Methanobrevibacter_A sp900320515</t>
+          <t>s__Methanobrevibacter_A sp902768765</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
+          <t>RUG787.fasta</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2.220493332990859e-14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.220493332990859e-14</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.220493332990859e-14</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6.820902237979035e-07</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2.220493332990859e-14</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.007334277391723e-12</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.220493332990859e-14</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.220493332990859e-14</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.220493332990859e-14</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.220493332990859e-14</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.006565729150559e-10</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.0152067503587873</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.220493332990859e-14</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.601983668771169e-09</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.918627626019853e-10</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.946100763079786e-13</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.9632381016748484</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.220493332990859e-14</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.220493332990859e-14</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.220493332990859e-14</v>
+      </c>
+      <c r="V16" t="n">
+        <v>8.78063967657359e-09</v>
+      </c>
+      <c r="W16" t="n">
+        <v>2.220493332990859e-14</v>
+      </c>
+      <c r="X16" t="n">
+        <v>3.844253801815767e-11</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.02155444989824162</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>2.220493332990859e-14</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>5.062412222607241e-09</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>2.220493332990859e-14</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>2.220493332990859e-14</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>2.220493332990859e-14</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>2.220493332990859e-14</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>2.220493332990859e-14</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>2.220493332990859e-14</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>2.220493332990859e-14</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>2.220493332990859e-14</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>2.220493332990859e-14</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>2.220493332990859e-14</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>2.220493332990859e-14</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>2.220493332990859e-14</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>2.220493332990859e-14</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.9632381016748484</v>
+      </c>
+      <c r="AP16" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900320515</t>
+        </is>
+      </c>
+      <c r="AQ16" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900320515</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
           <t>RUG823.fasta</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>2.22029197011862e-14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2.22029197011862e-14</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1.041382102611918e-13</v>
-      </c>
-      <c r="E16" t="n">
-        <v>5.63214258597352e-07</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2.22029197011862e-14</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2.22029197011862e-14</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2.22029197011862e-14</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.22029197011862e-14</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.9972716076287266</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.22029197011862e-14</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.720118244768158e-09</v>
-      </c>
-      <c r="M16" t="n">
-        <v>2.22029197011862e-14</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2.22029197011862e-14</v>
-      </c>
-      <c r="O16" t="n">
-        <v>2.391626875034889e-11</v>
-      </c>
-      <c r="P16" t="n">
-        <v>4.76196672270733e-05</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.598823621105134e-11</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2.22029197011862e-14</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.22029197011862e-14</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.22029197011862e-14</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.22029197011862e-14</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2.510088897846712e-06</v>
-      </c>
-      <c r="W16" t="n">
-        <v>2.22029197011862e-14</v>
-      </c>
-      <c r="X16" t="n">
-        <v>8.58302463960489e-08</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0.002597745045901314</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>2.22029197011862e-14</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>7.985612624769055e-05</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>2.22029197011862e-14</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>2.22029197011862e-14</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>1.062776812286592e-08</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>2.22029197011862e-14</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>2.22029197011862e-14</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>2.22029197011862e-14</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>2.22029197011862e-14</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>2.22029197011862e-14</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>2.22029197011862e-14</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>2.22029197011862e-14</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>2.22029197011862e-14</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>2.22029197011862e-14</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>2.22029197011862e-14</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>0.9972716076287266</v>
-      </c>
-      <c r="AP16" t="inlineStr">
+      <c r="B17" t="n">
+        <v>2.219989841763498e-14</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.219989841763498e-14</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.219989841763498e-14</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.966265958113874e-07</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2.219989841763498e-14</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.219989841763498e-14</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.219989841763498e-14</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.219989841763498e-14</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.7455363660168889</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.219989841763498e-14</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.014999435946565e-10</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2.219989841763498e-14</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2.219989841763498e-14</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.513524178537861e-10</v>
+      </c>
+      <c r="P17" t="n">
+        <v>8.556588463504902e-08</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.154738272241269e-12</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.219989841763498e-14</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.219989841763498e-14</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.219989841763498e-14</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.219989841763498e-14</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2.12821929311468e-07</v>
+      </c>
+      <c r="W17" t="n">
+        <v>2.219989841763498e-14</v>
+      </c>
+      <c r="X17" t="n">
+        <v>7.399619287015801e-08</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.0005859993897711573</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>2.219989841763498e-14</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.2538770598787974</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>2.219989841763498e-14</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>2.219989841763498e-14</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>5.249310908444522e-09</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>2.219989841763498e-14</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>2.219989841763498e-14</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>2.219989841763498e-14</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>2.219989841763498e-14</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>2.219989841763498e-14</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>2.219989841763498e-14</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>2.219989841763498e-14</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>2.219989841763498e-14</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>2.219989841763498e-14</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>2.219989841763498e-14</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0.7455363660168889</v>
+      </c>
+      <c r="AP17" t="inlineStr">
         <is>
           <t>s__Methanobrevibacter_A sp900313645</t>
         </is>
       </c>
-      <c r="AQ16" t="inlineStr">
-        <is>
-          <t>s__Methanobrevibacter_A sp900313645</t>
+      <c r="AQ17" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900313645(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>RUG833.fasta</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2.220394653724085e-14</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.220394653724085e-14</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3.135190096408053e-07</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.648351823013415e-08</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2.220394653724085e-14</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.220394653724085e-14</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.220394653724085e-14</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.220394653724085e-14</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.220394653724085e-14</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.220394653724085e-14</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.01096572362890017</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2.220394653724085e-14</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.137494808940109e-13</v>
+      </c>
+      <c r="O18" t="n">
+        <v>5.142207317176258e-06</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5.753136570127467e-08</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.9726170454997202</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.220394653724085e-14</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.376829639755644e-05</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.220394653724085e-14</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.220394653724085e-14</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.0001164861821608791</v>
+      </c>
+      <c r="W18" t="n">
+        <v>2.220394653724085e-14</v>
+      </c>
+      <c r="X18" t="n">
+        <v>6.811377907117494e-07</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.0001005910817999844</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.01330138386722747</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>7.347563702469278e-13</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>2.220394653724085e-14</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>2.220394653724085e-14</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.002878790563288708</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>2.220394653724085e-14</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>2.220394653724085e-14</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>2.220394653724085e-14</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>2.220394653724085e-14</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>2.220394653724085e-14</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>2.220394653724085e-14</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>2.220394653724085e-14</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>2.220394653724085e-14</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>2.220394653724085e-14</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>2.220394653724085e-14</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0.9726170454997202</v>
+      </c>
+      <c r="AP18" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900319985</t>
+        </is>
+      </c>
+      <c r="AQ18" t="inlineStr">
+        <is>
+          <t>s__Methanobrevibacter_A sp900319985</t>
         </is>
       </c>
     </row>
